--- a/Data Sets Coding Analysis/Philippine Data set/200204_philippines-2019-events-data.xlsx_3FAWSAccessKeyId=AKIAXYC32WNARK756OUG_Expires=1644193427_Signature=hFTPcWroN6S3M2pX40ObWvu24p8=.xlsx
+++ b/Data Sets Coding Analysis/Philippine Data set/200204_philippines-2019-events-data.xlsx_3FAWSAccessKeyId=AKIAXYC32WNARK756OUG_Expires=1644193427_Signature=hFTPcWroN6S3M2pX40ObWvu24p8=.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ITBA-3207_TeamTyphoonAnalysts\Data sets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ITBA-3207_TeamTyphoonAnalysts\Data Sets Coding Analysis\Philippine Data set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DACA6C-07F6-4BF3-916B-52237FD84F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2223CFA-2E6E-43AC-A43F-65DD3021F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-2100" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4768,8 +4768,8 @@
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Date Occurred"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2015 Population"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Affected_FAM"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Affected_PERs"/>
-    <tableColumn id="25" xr3:uid="{3A861CB8-6808-4184-9D5B-D215D3238DBE}" name="Affected_PERs2" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Affected_PERs2"/>
+    <tableColumn id="25" xr3:uid="{3A861CB8-6808-4184-9D5B-D215D3238DBE}" name="Affected_PERs" dataDxfId="0">
       <calculatedColumnFormula>VALUE(L2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Inside_EC_Fam_Cum"/>
@@ -5052,7 +5052,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5114,10 +5114,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>1495</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
@@ -5191,7 +5191,7 @@
         <v>1383</v>
       </c>
       <c r="M2" s="13">
-        <f>VALUE(L2)</f>
+        <f t="shared" ref="M2:M65" si="0">VALUE(L2)</f>
         <v>1383</v>
       </c>
       <c r="N2" s="1">
@@ -5265,7 +5265,7 @@
         <v>59</v>
       </c>
       <c r="M3" s="13">
-        <f>VALUE(L3)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="N3" s="1">
@@ -5341,7 +5341,7 @@
         <v>6930</v>
       </c>
       <c r="M4" s="13">
-        <f>VALUE(L4)</f>
+        <f t="shared" si="0"/>
         <v>6930</v>
       </c>
       <c r="N4" s="1">
@@ -5417,7 +5417,7 @@
         <v>3414</v>
       </c>
       <c r="M5" s="13">
-        <f>VALUE(L5)</f>
+        <f t="shared" si="0"/>
         <v>3414</v>
       </c>
       <c r="N5" s="1">
@@ -5493,7 +5493,7 @@
         <v>266</v>
       </c>
       <c r="M6" s="13">
-        <f>VALUE(L6)</f>
+        <f t="shared" si="0"/>
         <v>266</v>
       </c>
       <c r="N6" s="1">
@@ -5569,7 +5569,7 @@
         <v>211</v>
       </c>
       <c r="M7" s="13">
-        <f>VALUE(L7)</f>
+        <f t="shared" si="0"/>
         <v>211</v>
       </c>
       <c r="N7" s="1">
@@ -5645,7 +5645,7 @@
         <v>858</v>
       </c>
       <c r="M8" s="13">
-        <f>VALUE(L8)</f>
+        <f t="shared" si="0"/>
         <v>858</v>
       </c>
       <c r="N8" s="1">
@@ -5721,7 +5721,7 @@
         <v>123</v>
       </c>
       <c r="M9" s="13">
-        <f>VALUE(L9)</f>
+        <f t="shared" si="0"/>
         <v>123</v>
       </c>
       <c r="N9" s="1">
@@ -5797,7 +5797,7 @@
         <v>313</v>
       </c>
       <c r="M10" s="13">
-        <f>VALUE(L10)</f>
+        <f t="shared" si="0"/>
         <v>313</v>
       </c>
       <c r="N10" s="1">
@@ -5873,7 +5873,7 @@
         <v>1073</v>
       </c>
       <c r="M11" s="13">
-        <f>VALUE(L11)</f>
+        <f t="shared" si="0"/>
         <v>1073</v>
       </c>
       <c r="N11" s="1">
@@ -5949,7 +5949,7 @@
         <v>490</v>
       </c>
       <c r="M12" s="13">
-        <f>VALUE(L12)</f>
+        <f t="shared" si="0"/>
         <v>490</v>
       </c>
       <c r="N12" s="1">
@@ -6025,7 +6025,7 @@
         <v>601</v>
       </c>
       <c r="M13" s="13">
-        <f>VALUE(L13)</f>
+        <f t="shared" si="0"/>
         <v>601</v>
       </c>
       <c r="N13" s="1">
@@ -6101,7 +6101,7 @@
         <v>131</v>
       </c>
       <c r="M14" s="13">
-        <f>VALUE(L14)</f>
+        <f t="shared" si="0"/>
         <v>131</v>
       </c>
       <c r="N14" s="1">
@@ -6177,7 +6177,7 @@
         <v>201</v>
       </c>
       <c r="M15" s="13">
-        <f>VALUE(L15)</f>
+        <f t="shared" si="0"/>
         <v>201</v>
       </c>
       <c r="N15" s="1">
@@ -6253,7 +6253,7 @@
         <v>269</v>
       </c>
       <c r="M16" s="13">
-        <f>VALUE(L16)</f>
+        <f t="shared" si="0"/>
         <v>269</v>
       </c>
       <c r="N16" s="1">
@@ -6329,7 +6329,7 @@
         <v>188</v>
       </c>
       <c r="M17" s="13">
-        <f>VALUE(L17)</f>
+        <f t="shared" si="0"/>
         <v>188</v>
       </c>
       <c r="N17" s="1">
@@ -6405,7 +6405,7 @@
         <v>64</v>
       </c>
       <c r="M18" s="13">
-        <f>VALUE(L18)</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="N18" s="1">
@@ -6481,7 +6481,7 @@
         <v>15</v>
       </c>
       <c r="M19" s="13">
-        <f>VALUE(L19)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N19" s="1">
@@ -6557,7 +6557,7 @@
         <v>44</v>
       </c>
       <c r="M20" s="13">
-        <f>VALUE(L20)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="N20" s="1">
@@ -6633,7 +6633,7 @@
         <v>341</v>
       </c>
       <c r="M21" s="13">
-        <f>VALUE(L21)</f>
+        <f t="shared" si="0"/>
         <v>341</v>
       </c>
       <c r="N21" s="1">
@@ -6709,7 +6709,7 @@
         <v>4250</v>
       </c>
       <c r="M22" s="13">
-        <f>VALUE(L22)</f>
+        <f t="shared" si="0"/>
         <v>4250</v>
       </c>
       <c r="N22" s="1">
@@ -6785,7 +6785,7 @@
         <v>336</v>
       </c>
       <c r="M23" s="13">
-        <f>VALUE(L23)</f>
+        <f t="shared" si="0"/>
         <v>336</v>
       </c>
       <c r="N23" s="1">
@@ -6861,7 +6861,7 @@
         <v>1123</v>
       </c>
       <c r="M24" s="13">
-        <f>VALUE(L24)</f>
+        <f t="shared" si="0"/>
         <v>1123</v>
       </c>
       <c r="N24" s="1">
@@ -6937,7 +6937,7 @@
         <v>552</v>
       </c>
       <c r="M25" s="13">
-        <f>VALUE(L25)</f>
+        <f t="shared" si="0"/>
         <v>552</v>
       </c>
       <c r="N25" s="1">
@@ -7013,7 +7013,7 @@
         <v>150</v>
       </c>
       <c r="M26" s="13">
-        <f>VALUE(L26)</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="N26" s="1">
@@ -7089,7 +7089,7 @@
         <v>85</v>
       </c>
       <c r="M27" s="13">
-        <f>VALUE(L27)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="N27" s="1">
@@ -7165,7 +7165,7 @@
         <v>35</v>
       </c>
       <c r="M28" s="13">
-        <f>VALUE(L28)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="N28" s="1">
@@ -7241,7 +7241,7 @@
         <v>5</v>
       </c>
       <c r="M29" s="13">
-        <f>VALUE(L29)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N29" s="1">
@@ -7317,7 +7317,7 @@
         <v>325</v>
       </c>
       <c r="M30" s="13">
-        <f>VALUE(L30)</f>
+        <f t="shared" si="0"/>
         <v>325</v>
       </c>
       <c r="N30" s="1">
@@ -7393,7 +7393,7 @@
         <v>5</v>
       </c>
       <c r="M31" s="13">
-        <f>VALUE(L31)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="N31" s="1">
@@ -7469,7 +7469,7 @@
         <v>3</v>
       </c>
       <c r="M32" s="13">
-        <f>VALUE(L32)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N32" s="1">
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="13">
-        <f>VALUE(L33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N33" s="1">
@@ -7619,7 +7619,7 @@
         <v>19</v>
       </c>
       <c r="M34" s="13">
-        <f>VALUE(L34)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="N34" s="1">
@@ -7695,7 +7695,7 @@
         <v>41</v>
       </c>
       <c r="M35" s="13">
-        <f>VALUE(L35)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="N35" s="1">
@@ -7771,7 +7771,7 @@
         <v>1415</v>
       </c>
       <c r="M36" s="13">
-        <f>VALUE(L36)</f>
+        <f t="shared" si="0"/>
         <v>1415</v>
       </c>
       <c r="N36" s="1">
@@ -7847,7 +7847,7 @@
         <v>39</v>
       </c>
       <c r="M37" s="13">
-        <f>VALUE(L37)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="N37" s="1">
@@ -7923,7 +7923,7 @@
         <v>1091</v>
       </c>
       <c r="M38" s="13">
-        <f>VALUE(L38)</f>
+        <f t="shared" si="0"/>
         <v>1091</v>
       </c>
       <c r="N38" s="1">
@@ -7999,7 +7999,7 @@
         <v>6</v>
       </c>
       <c r="M39" s="13">
-        <f>VALUE(L39)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N39" s="1">
@@ -8075,7 +8075,7 @@
         <v>11</v>
       </c>
       <c r="M40" s="13">
-        <f>VALUE(L40)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="N40" s="1">
@@ -8151,7 +8151,7 @@
         <v>100</v>
       </c>
       <c r="M41" s="13">
-        <f>VALUE(L41)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="N41" s="1">
@@ -8227,7 +8227,7 @@
         <v>2</v>
       </c>
       <c r="M42" s="13">
-        <f>VALUE(L42)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N42" s="1">
@@ -8303,7 +8303,7 @@
         <v>12</v>
       </c>
       <c r="M43" s="13">
-        <f>VALUE(L43)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="N43" s="1">
@@ -8379,7 +8379,7 @@
         <v>397</v>
       </c>
       <c r="M44" s="13">
-        <f>VALUE(L44)</f>
+        <f t="shared" si="0"/>
         <v>397</v>
       </c>
       <c r="N44" s="1">
@@ -8455,7 +8455,7 @@
         <v>84</v>
       </c>
       <c r="M45" s="13">
-        <f>VALUE(L45)</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="N45" s="1">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="13">
-        <f>VALUE(L46)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N46" s="1">
@@ -8607,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="13">
-        <f>VALUE(L47)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N47" s="1">
@@ -8683,7 +8683,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="13">
-        <f>VALUE(L48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N48" s="1">
@@ -8759,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="13">
-        <f>VALUE(L49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N49" s="1">
@@ -8835,7 +8835,7 @@
         <v>4</v>
       </c>
       <c r="M50" s="13">
-        <f>VALUE(L50)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N50" s="1">
@@ -8911,7 +8911,7 @@
         <v>36</v>
       </c>
       <c r="M51" s="13">
-        <f>VALUE(L51)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="N51" s="1">
@@ -8987,7 +8987,7 @@
         <v>841</v>
       </c>
       <c r="M52" s="13">
-        <f>VALUE(L52)</f>
+        <f t="shared" si="0"/>
         <v>841</v>
       </c>
       <c r="N52" s="1">
@@ -9063,7 +9063,7 @@
         <v>34448</v>
       </c>
       <c r="M53" s="13">
-        <f>VALUE(L53)</f>
+        <f t="shared" si="0"/>
         <v>34448</v>
       </c>
       <c r="N53" s="1">
@@ -9139,7 +9139,7 @@
         <v>5272</v>
       </c>
       <c r="M54" s="13">
-        <f>VALUE(L54)</f>
+        <f t="shared" si="0"/>
         <v>5272</v>
       </c>
       <c r="N54" s="1">
@@ -9215,7 +9215,7 @@
         <v>68</v>
       </c>
       <c r="M55" s="13">
-        <f>VALUE(L55)</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="N55" s="1">
@@ -9291,7 +9291,7 @@
         <v>120</v>
       </c>
       <c r="M56" s="13">
-        <f>VALUE(L56)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="N56" s="1">
@@ -9367,7 +9367,7 @@
         <v>25625</v>
       </c>
       <c r="M57" s="13">
-        <f>VALUE(L57)</f>
+        <f t="shared" si="0"/>
         <v>25625</v>
       </c>
       <c r="N57" s="1">
@@ -9443,7 +9443,7 @@
         <v>1567</v>
       </c>
       <c r="M58" s="13">
-        <f>VALUE(L58)</f>
+        <f t="shared" si="0"/>
         <v>1567</v>
       </c>
       <c r="N58" s="1">
@@ -9519,7 +9519,7 @@
         <v>40</v>
       </c>
       <c r="M59" s="13">
-        <f>VALUE(L59)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="N59" s="1">
@@ -9595,7 +9595,7 @@
         <v>7</v>
       </c>
       <c r="M60" s="13">
-        <f>VALUE(L60)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="N60" s="1">
@@ -9671,7 +9671,7 @@
         <v>1015</v>
       </c>
       <c r="M61" s="13">
-        <f>VALUE(L61)</f>
+        <f t="shared" si="0"/>
         <v>1015</v>
       </c>
       <c r="N61" s="1">
@@ -9747,7 +9747,7 @@
         <v>187</v>
       </c>
       <c r="M62" s="13">
-        <f>VALUE(L62)</f>
+        <f t="shared" si="0"/>
         <v>187</v>
       </c>
       <c r="N62" s="1">
@@ -9823,7 +9823,7 @@
         <v>100</v>
       </c>
       <c r="M63" s="13">
-        <f>VALUE(L63)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="N63" s="1">
@@ -9899,7 +9899,7 @@
         <v>41</v>
       </c>
       <c r="M64" s="13">
-        <f>VALUE(L64)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="N64" s="1">
@@ -9975,7 +9975,7 @@
         <v>15</v>
       </c>
       <c r="M65" s="13">
-        <f>VALUE(L65)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N65" s="1">
@@ -10051,7 +10051,7 @@
         <v>768</v>
       </c>
       <c r="M66" s="13">
-        <f>VALUE(L66)</f>
+        <f t="shared" ref="M66:M129" si="1">VALUE(L66)</f>
         <v>768</v>
       </c>
       <c r="N66" s="1">
@@ -10127,7 +10127,7 @@
         <v>9</v>
       </c>
       <c r="M67" s="13">
-        <f>VALUE(L67)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="N67" s="1">
@@ -10203,7 +10203,7 @@
         <v>3750</v>
       </c>
       <c r="M68" s="13">
-        <f>VALUE(L68)</f>
+        <f t="shared" si="1"/>
         <v>3750</v>
       </c>
       <c r="N68" s="1">
@@ -10279,7 +10279,7 @@
         <v>11</v>
       </c>
       <c r="M69" s="13">
-        <f>VALUE(L69)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="N69" s="1">
@@ -10355,7 +10355,7 @@
         <v>6</v>
       </c>
       <c r="M70" s="13">
-        <f>VALUE(L70)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N70" s="1">
@@ -10431,7 +10431,7 @@
         <v>98</v>
       </c>
       <c r="M71" s="13">
-        <f>VALUE(L71)</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="N71" s="1">
@@ -10507,7 +10507,7 @@
         <v>387</v>
       </c>
       <c r="M72" s="13">
-        <f>VALUE(L72)</f>
+        <f t="shared" si="1"/>
         <v>387</v>
       </c>
       <c r="N72" s="1">
@@ -10583,7 +10583,7 @@
         <v>628</v>
       </c>
       <c r="M73" s="13">
-        <f>VALUE(L73)</f>
+        <f t="shared" si="1"/>
         <v>628</v>
       </c>
       <c r="N73" s="1">
@@ -10659,7 +10659,7 @@
         <v>247</v>
       </c>
       <c r="M74" s="13">
-        <f>VALUE(L74)</f>
+        <f t="shared" si="1"/>
         <v>247</v>
       </c>
       <c r="N74" s="1">
@@ -10735,7 +10735,7 @@
         <v>69</v>
       </c>
       <c r="M75" s="13">
-        <f>VALUE(L75)</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="N75" s="1">
@@ -10811,7 +10811,7 @@
         <v>512</v>
       </c>
       <c r="M76" s="13">
-        <f>VALUE(L76)</f>
+        <f t="shared" si="1"/>
         <v>512</v>
       </c>
       <c r="N76" s="1">
@@ -10887,7 +10887,7 @@
         <v>11604</v>
       </c>
       <c r="M77" s="13">
-        <f>VALUE(L77)</f>
+        <f t="shared" si="1"/>
         <v>11604</v>
       </c>
       <c r="N77" s="1">
@@ -10963,7 +10963,7 @@
         <v>45</v>
       </c>
       <c r="M78" s="13">
-        <f>VALUE(L78)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="N78" s="1">
@@ -11039,7 +11039,7 @@
         <v>3760</v>
       </c>
       <c r="M79" s="13">
-        <f>VALUE(L79)</f>
+        <f t="shared" si="1"/>
         <v>3760</v>
       </c>
       <c r="N79" s="1">
@@ -11115,7 +11115,7 @@
         <v>5040</v>
       </c>
       <c r="M80" s="13">
-        <f>VALUE(L80)</f>
+        <f t="shared" si="1"/>
         <v>5040</v>
       </c>
       <c r="N80" s="1">
@@ -11191,7 +11191,7 @@
         <v>456</v>
       </c>
       <c r="M81" s="13">
-        <f>VALUE(L81)</f>
+        <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="N81" s="1">
@@ -11267,7 +11267,7 @@
         <v>5</v>
       </c>
       <c r="M82" s="13">
-        <f>VALUE(L82)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N82" s="1">
@@ -11343,7 +11343,7 @@
         <v>40394</v>
       </c>
       <c r="M83" s="13">
-        <f>VALUE(L83)</f>
+        <f t="shared" si="1"/>
         <v>40394</v>
       </c>
       <c r="N83" s="1">
@@ -11419,7 +11419,7 @@
         <v>26145</v>
       </c>
       <c r="M84" s="13">
-        <f>VALUE(L84)</f>
+        <f t="shared" si="1"/>
         <v>26145</v>
       </c>
       <c r="N84" s="1">
@@ -11495,7 +11495,7 @@
         <v>4095</v>
       </c>
       <c r="M85" s="13">
-        <f>VALUE(L85)</f>
+        <f t="shared" si="1"/>
         <v>4095</v>
       </c>
       <c r="N85" s="1">
@@ -11571,7 +11571,7 @@
         <v>6</v>
       </c>
       <c r="M86" s="13">
-        <f>VALUE(L86)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N86" s="1">
@@ -11647,7 +11647,7 @@
         <v>43</v>
       </c>
       <c r="M87" s="13">
-        <f>VALUE(L87)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="N87" s="1">
@@ -11723,7 +11723,7 @@
         <v>981</v>
       </c>
       <c r="M88" s="13">
-        <f>VALUE(L88)</f>
+        <f t="shared" si="1"/>
         <v>981</v>
       </c>
       <c r="N88" s="1">
@@ -11799,7 +11799,7 @@
         <v>345</v>
       </c>
       <c r="M89" s="13">
-        <f>VALUE(L89)</f>
+        <f t="shared" si="1"/>
         <v>345</v>
       </c>
       <c r="N89" s="1">
@@ -11875,7 +11875,7 @@
         <v>81</v>
       </c>
       <c r="M90" s="13">
-        <f>VALUE(L90)</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="N90" s="1">
@@ -11951,7 +11951,7 @@
         <v>15</v>
       </c>
       <c r="M91" s="13">
-        <f>VALUE(L91)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="N91" s="1">
@@ -12027,7 +12027,7 @@
         <v>89</v>
       </c>
       <c r="M92" s="13">
-        <f>VALUE(L92)</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="N92" s="1">
@@ -12103,7 +12103,7 @@
         <v>272</v>
       </c>
       <c r="M93" s="4" t="e">
-        <f>VALUE(L93)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="N93" s="1">
@@ -12179,7 +12179,7 @@
         <v>5</v>
       </c>
       <c r="M94" s="13">
-        <f>VALUE(L94)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N94" s="1">
@@ -12255,7 +12255,7 @@
         <v>1428</v>
       </c>
       <c r="M95" s="13">
-        <f>VALUE(L95)</f>
+        <f t="shared" si="1"/>
         <v>1428</v>
       </c>
       <c r="N95" s="1">
@@ -12331,7 +12331,7 @@
         <v>21</v>
       </c>
       <c r="M96" s="13">
-        <f>VALUE(L96)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="N96" s="1">
@@ -12407,7 +12407,7 @@
         <v>49</v>
       </c>
       <c r="M97" s="13">
-        <f>VALUE(L97)</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="N97" s="1">
@@ -12483,7 +12483,7 @@
         <v>2</v>
       </c>
       <c r="M98" s="13">
-        <f>VALUE(L98)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N98" s="1">
@@ -12559,7 +12559,7 @@
         <v>69</v>
       </c>
       <c r="M99" s="13">
-        <f>VALUE(L99)</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="N99" s="1">
@@ -12635,7 +12635,7 @@
         <v>7</v>
       </c>
       <c r="M100" s="13">
-        <f>VALUE(L100)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="N100" s="1">
@@ -12711,7 +12711,7 @@
         <v>52</v>
       </c>
       <c r="M101" s="13">
-        <f>VALUE(L101)</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="N101" s="1"/>
@@ -12777,7 +12777,7 @@
         <v>4865</v>
       </c>
       <c r="M102" s="13">
-        <f>VALUE(L102)</f>
+        <f t="shared" si="1"/>
         <v>4865</v>
       </c>
       <c r="N102" s="1"/>
@@ -12843,7 +12843,7 @@
         <v>1627</v>
       </c>
       <c r="M103" s="13">
-        <f>VALUE(L103)</f>
+        <f t="shared" si="1"/>
         <v>1627</v>
       </c>
       <c r="N103" s="1"/>
@@ -12909,7 +12909,7 @@
         <v>2514</v>
       </c>
       <c r="M104" s="13">
-        <f>VALUE(L104)</f>
+        <f t="shared" si="1"/>
         <v>2514</v>
       </c>
       <c r="N104" s="1"/>
@@ -12975,7 +12975,7 @@
         <v>1748</v>
       </c>
       <c r="M105" s="13">
-        <f>VALUE(L105)</f>
+        <f t="shared" si="1"/>
         <v>1748</v>
       </c>
       <c r="N105" s="1"/>
@@ -13041,7 +13041,7 @@
         <v>334</v>
       </c>
       <c r="M106" s="13">
-        <f>VALUE(L106)</f>
+        <f t="shared" si="1"/>
         <v>334</v>
       </c>
       <c r="N106" s="1"/>
@@ -13107,7 +13107,7 @@
         <v>21</v>
       </c>
       <c r="M107" s="13">
-        <f>VALUE(L107)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="N107" s="1"/>
@@ -13173,7 +13173,7 @@
         <v>31265</v>
       </c>
       <c r="M108" s="13">
-        <f>VALUE(L108)</f>
+        <f t="shared" si="1"/>
         <v>31265</v>
       </c>
       <c r="N108" s="1"/>
@@ -13239,7 +13239,7 @@
         <v>262</v>
       </c>
       <c r="M109" s="13">
-        <f>VALUE(L109)</f>
+        <f t="shared" si="1"/>
         <v>262</v>
       </c>
       <c r="N109" s="1"/>
@@ -13305,7 +13305,7 @@
         <v>1880</v>
       </c>
       <c r="M110" s="13">
-        <f>VALUE(L110)</f>
+        <f t="shared" si="1"/>
         <v>1880</v>
       </c>
       <c r="N110" s="1"/>
@@ -13371,7 +13371,7 @@
         <v>1420</v>
       </c>
       <c r="M111" s="13">
-        <f>VALUE(L111)</f>
+        <f t="shared" si="1"/>
         <v>1420</v>
       </c>
       <c r="N111" s="1"/>
@@ -13437,7 +13437,7 @@
         <v>3613</v>
       </c>
       <c r="M112" s="13">
-        <f>VALUE(L112)</f>
+        <f t="shared" si="1"/>
         <v>3613</v>
       </c>
       <c r="N112" s="1"/>
@@ -13503,7 +13503,7 @@
         <v>9530</v>
       </c>
       <c r="M113" s="13">
-        <f>VALUE(L113)</f>
+        <f t="shared" si="1"/>
         <v>9530</v>
       </c>
       <c r="N113" s="1"/>
@@ -13569,7 +13569,7 @@
         <v>6295</v>
       </c>
       <c r="M114" s="13">
-        <f>VALUE(L114)</f>
+        <f t="shared" si="1"/>
         <v>6295</v>
       </c>
       <c r="N114" s="1"/>
@@ -13635,7 +13635,7 @@
         <v>10925</v>
       </c>
       <c r="M115" s="13">
-        <f>VALUE(L115)</f>
+        <f t="shared" si="1"/>
         <v>10925</v>
       </c>
       <c r="N115" s="1"/>
@@ -13701,7 +13701,7 @@
         <v>1689</v>
       </c>
       <c r="M116" s="13">
-        <f>VALUE(L116)</f>
+        <f t="shared" si="1"/>
         <v>1689</v>
       </c>
       <c r="N116" s="1"/>
@@ -13767,7 +13767,7 @@
         <v>64</v>
       </c>
       <c r="M117" s="13">
-        <f>VALUE(L117)</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="N117" s="1"/>
@@ -13833,7 +13833,7 @@
         <v>2564</v>
       </c>
       <c r="M118" s="13">
-        <f>VALUE(L118)</f>
+        <f t="shared" si="1"/>
         <v>2564</v>
       </c>
       <c r="N118" s="1"/>
@@ -13899,7 +13899,7 @@
         <v>59</v>
       </c>
       <c r="M119" s="13">
-        <f>VALUE(L119)</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="N119" s="1"/>
@@ -13965,7 +13965,7 @@
         <v>198</v>
       </c>
       <c r="M120" s="13">
-        <f>VALUE(L120)</f>
+        <f t="shared" si="1"/>
         <v>198</v>
       </c>
       <c r="N120" s="1"/>
@@ -14031,7 +14031,7 @@
         <v>5</v>
       </c>
       <c r="M121" s="13">
-        <f>VALUE(L121)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N121" s="1"/>
@@ -14097,7 +14097,7 @@
         <v>1</v>
       </c>
       <c r="M122" s="13">
-        <f>VALUE(L122)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N122" s="1"/>
@@ -14163,7 +14163,7 @@
         <v>102</v>
       </c>
       <c r="M123" s="13">
-        <f>VALUE(L123)</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="N123" s="1"/>
@@ -14229,7 +14229,7 @@
         <v>3600</v>
       </c>
       <c r="M124" s="13">
-        <f>VALUE(L124)</f>
+        <f t="shared" si="1"/>
         <v>3600</v>
       </c>
       <c r="N124" s="1"/>
@@ -14295,7 +14295,7 @@
         <v>103</v>
       </c>
       <c r="M125" s="13">
-        <f>VALUE(L125)</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="N125" s="1"/>
@@ -14361,7 +14361,7 @@
         <v>221</v>
       </c>
       <c r="M126" s="13">
-        <f>VALUE(L126)</f>
+        <f t="shared" si="1"/>
         <v>221</v>
       </c>
       <c r="N126" s="1"/>
@@ -14427,7 +14427,7 @@
         <v>174</v>
       </c>
       <c r="M127" s="13">
-        <f>VALUE(L127)</f>
+        <f t="shared" si="1"/>
         <v>174</v>
       </c>
       <c r="N127" s="1"/>
@@ -14493,7 +14493,7 @@
         <v>593</v>
       </c>
       <c r="M128" s="13">
-        <f>VALUE(L128)</f>
+        <f t="shared" si="1"/>
         <v>593</v>
       </c>
       <c r="N128" s="1"/>
@@ -14559,7 +14559,7 @@
         <v>35</v>
       </c>
       <c r="M129" s="13">
-        <f>VALUE(L129)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="N129" s="1">
@@ -14635,7 +14635,7 @@
         <v>9965</v>
       </c>
       <c r="M130" s="13">
-        <f>VALUE(L130)</f>
+        <f t="shared" ref="M130:M193" si="2">VALUE(L130)</f>
         <v>9965</v>
       </c>
       <c r="N130" s="1">
@@ -14711,7 +14711,7 @@
         <v>76</v>
       </c>
       <c r="M131" s="13">
-        <f>VALUE(L131)</f>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="N131" s="1">
@@ -14787,7 +14787,7 @@
         <v>3</v>
       </c>
       <c r="M132" s="13">
-        <f>VALUE(L132)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="N132" s="1">
@@ -14863,7 +14863,7 @@
         <v>5150</v>
       </c>
       <c r="M133" s="13">
-        <f>VALUE(L133)</f>
+        <f t="shared" si="2"/>
         <v>5150</v>
       </c>
       <c r="N133" s="1">
@@ -14939,7 +14939,7 @@
         <v>198</v>
       </c>
       <c r="M134" s="13">
-        <f>VALUE(L134)</f>
+        <f t="shared" si="2"/>
         <v>198</v>
       </c>
       <c r="N134" s="1">
@@ -15015,7 +15015,7 @@
         <v>677</v>
       </c>
       <c r="M135" s="13">
-        <f>VALUE(L135)</f>
+        <f t="shared" si="2"/>
         <v>677</v>
       </c>
       <c r="N135" s="1">
@@ -15091,7 +15091,7 @@
         <v>730</v>
       </c>
       <c r="M136" s="13">
-        <f>VALUE(L136)</f>
+        <f t="shared" si="2"/>
         <v>730</v>
       </c>
       <c r="N136" s="1">
@@ -15167,7 +15167,7 @@
         <v>129</v>
       </c>
       <c r="M137" s="13">
-        <f>VALUE(L137)</f>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="N137" s="1">
@@ -15243,7 +15243,7 @@
         <v>202</v>
       </c>
       <c r="M138" s="13">
-        <f>VALUE(L138)</f>
+        <f t="shared" si="2"/>
         <v>202</v>
       </c>
       <c r="N138" s="1">
@@ -15319,7 +15319,7 @@
         <v>158</v>
       </c>
       <c r="M139" s="13">
-        <f>VALUE(L139)</f>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="N139" s="1">
@@ -15395,7 +15395,7 @@
         <v>15</v>
       </c>
       <c r="M140" s="13">
-        <f>VALUE(L140)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="N140" s="1">
@@ -15471,7 +15471,7 @@
         <v>13</v>
       </c>
       <c r="M141" s="13">
-        <f>VALUE(L141)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="N141" s="1">
@@ -15547,7 +15547,7 @@
         <v>56</v>
       </c>
       <c r="M142" s="13">
-        <f>VALUE(L142)</f>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="N142" s="1">
@@ -15623,7 +15623,7 @@
         <v>8</v>
       </c>
       <c r="M143" s="13">
-        <f>VALUE(L143)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="N143" s="1">
@@ -15699,7 +15699,7 @@
         <v>162</v>
       </c>
       <c r="M144" s="13">
-        <f>VALUE(L144)</f>
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="N144" s="1">
@@ -15775,7 +15775,7 @@
         <v>4</v>
       </c>
       <c r="M145" s="13">
-        <f>VALUE(L145)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N145" s="1">
@@ -15851,7 +15851,7 @@
         <v>9</v>
       </c>
       <c r="M146" s="13">
-        <f>VALUE(L146)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="N146" s="1">
@@ -15927,7 +15927,7 @@
         <v>4</v>
       </c>
       <c r="M147" s="13">
-        <f>VALUE(L147)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N147" s="1">
@@ -16003,7 +16003,7 @@
         <v>571</v>
       </c>
       <c r="M148" s="13">
-        <f>VALUE(L148)</f>
+        <f t="shared" si="2"/>
         <v>571</v>
       </c>
       <c r="N148" s="1">
@@ -16079,7 +16079,7 @@
         <v>2881</v>
       </c>
       <c r="M149" s="13">
-        <f>VALUE(L149)</f>
+        <f t="shared" si="2"/>
         <v>2881</v>
       </c>
       <c r="N149" s="1">
@@ -16155,7 +16155,7 @@
         <v>6145</v>
       </c>
       <c r="M150" s="13">
-        <f>VALUE(L150)</f>
+        <f t="shared" si="2"/>
         <v>6145</v>
       </c>
       <c r="N150" s="1">
@@ -16231,7 +16231,7 @@
         <v>5</v>
       </c>
       <c r="M151" s="13">
-        <f>VALUE(L151)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="N151" s="1">
@@ -16307,7 +16307,7 @@
         <v>705</v>
       </c>
       <c r="M152" s="13">
-        <f>VALUE(L152)</f>
+        <f t="shared" si="2"/>
         <v>705</v>
       </c>
       <c r="N152" s="1">
@@ -16383,7 +16383,7 @@
         <v>7497</v>
       </c>
       <c r="M153" s="13">
-        <f>VALUE(L153)</f>
+        <f t="shared" si="2"/>
         <v>7497</v>
       </c>
       <c r="N153" s="1">
@@ -16459,7 +16459,7 @@
         <v>135</v>
       </c>
       <c r="M154" s="13">
-        <f>VALUE(L154)</f>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="N154" s="1">
@@ -16535,7 +16535,7 @@
         <v>624</v>
       </c>
       <c r="M155" s="13">
-        <f>VALUE(L155)</f>
+        <f t="shared" si="2"/>
         <v>624</v>
       </c>
       <c r="N155" s="1">
@@ -16611,7 +16611,7 @@
         <v>2080</v>
       </c>
       <c r="M156" s="13">
-        <f>VALUE(L156)</f>
+        <f t="shared" si="2"/>
         <v>2080</v>
       </c>
       <c r="N156" s="1">
@@ -16687,7 +16687,7 @@
         <v>4160</v>
       </c>
       <c r="M157" s="13">
-        <f>VALUE(L157)</f>
+        <f t="shared" si="2"/>
         <v>4160</v>
       </c>
       <c r="N157" s="1">
@@ -16763,7 +16763,7 @@
         <v>2860</v>
       </c>
       <c r="M158" s="13">
-        <f>VALUE(L158)</f>
+        <f t="shared" si="2"/>
         <v>2860</v>
       </c>
       <c r="N158" s="1">
@@ -16839,7 +16839,7 @@
         <v>15</v>
       </c>
       <c r="M159" s="13">
-        <f>VALUE(L159)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="N159" s="1">
@@ -16915,7 +16915,7 @@
         <v>5</v>
       </c>
       <c r="M160" s="13">
-        <f>VALUE(L160)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="N160" s="1">
@@ -16991,7 +16991,7 @@
         <v>6149</v>
       </c>
       <c r="M161" s="13">
-        <f>VALUE(L161)</f>
+        <f t="shared" si="2"/>
         <v>6149</v>
       </c>
       <c r="N161" s="1">
@@ -17067,7 +17067,7 @@
         <v>207</v>
       </c>
       <c r="M162" s="13">
-        <f>VALUE(L162)</f>
+        <f t="shared" si="2"/>
         <v>207</v>
       </c>
       <c r="N162" s="1">
@@ -17143,7 +17143,7 @@
         <v>280</v>
       </c>
       <c r="M163" s="13">
-        <f>VALUE(L163)</f>
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="N163" s="1">
@@ -17219,7 +17219,7 @@
         <v>31698</v>
       </c>
       <c r="M164" s="13">
-        <f>VALUE(L164)</f>
+        <f t="shared" si="2"/>
         <v>31698</v>
       </c>
       <c r="N164" s="1">
@@ -17295,7 +17295,7 @@
         <v>91</v>
       </c>
       <c r="M165" s="13">
-        <f>VALUE(L165)</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="N165" s="1">
@@ -17371,7 +17371,7 @@
         <v>3968</v>
       </c>
       <c r="M166" s="13">
-        <f>VALUE(L166)</f>
+        <f t="shared" si="2"/>
         <v>3968</v>
       </c>
       <c r="N166" s="1">
@@ -17447,7 +17447,7 @@
         <v>908</v>
       </c>
       <c r="M167" s="13">
-        <f>VALUE(L167)</f>
+        <f t="shared" si="2"/>
         <v>908</v>
       </c>
       <c r="N167" s="1">
@@ -17523,7 +17523,7 @@
         <v>22911</v>
       </c>
       <c r="M168" s="13">
-        <f>VALUE(L168)</f>
+        <f t="shared" si="2"/>
         <v>22911</v>
       </c>
       <c r="N168" s="1">
@@ -17599,7 +17599,7 @@
         <v>24911</v>
       </c>
       <c r="M169" s="13">
-        <f>VALUE(L169)</f>
+        <f t="shared" si="2"/>
         <v>24911</v>
       </c>
       <c r="N169" s="1">
@@ -17675,7 +17675,7 @@
         <v>17422</v>
       </c>
       <c r="M170" s="13">
-        <f>VALUE(L170)</f>
+        <f t="shared" si="2"/>
         <v>17422</v>
       </c>
       <c r="N170" s="1">
@@ -17751,7 +17751,7 @@
         <v>35</v>
       </c>
       <c r="M171" s="13">
-        <f>VALUE(L171)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="N171" s="1">
@@ -17827,7 +17827,7 @@
         <v>1330</v>
       </c>
       <c r="M172" s="13">
-        <f>VALUE(L172)</f>
+        <f t="shared" si="2"/>
         <v>1330</v>
       </c>
       <c r="N172" s="1">
@@ -17903,7 +17903,7 @@
         <v>3918</v>
       </c>
       <c r="M173" s="13">
-        <f>VALUE(L173)</f>
+        <f t="shared" si="2"/>
         <v>3918</v>
       </c>
       <c r="N173" s="1">
@@ -17979,7 +17979,7 @@
         <v>3926</v>
       </c>
       <c r="M174" s="13">
-        <f>VALUE(L174)</f>
+        <f t="shared" si="2"/>
         <v>3926</v>
       </c>
       <c r="N174" s="1">
@@ -18055,7 +18055,7 @@
         <v>9345</v>
       </c>
       <c r="M175" s="13">
-        <f>VALUE(L175)</f>
+        <f t="shared" si="2"/>
         <v>9345</v>
       </c>
       <c r="N175" s="1">
@@ -18131,7 +18131,7 @@
         <v>81</v>
       </c>
       <c r="M176" s="13">
-        <f>VALUE(L176)</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="N176" s="1">
@@ -18207,7 +18207,7 @@
         <v>3263</v>
       </c>
       <c r="M177" s="13">
-        <f>VALUE(L177)</f>
+        <f t="shared" si="2"/>
         <v>3263</v>
       </c>
       <c r="N177" s="1">
@@ -18283,7 +18283,7 @@
         <v>1714</v>
       </c>
       <c r="M178" s="13">
-        <f>VALUE(L178)</f>
+        <f t="shared" si="2"/>
         <v>1714</v>
       </c>
       <c r="N178" s="1">
@@ -18359,7 +18359,7 @@
         <v>4573</v>
       </c>
       <c r="M179" s="13">
-        <f>VALUE(L179)</f>
+        <f t="shared" si="2"/>
         <v>4573</v>
       </c>
       <c r="N179" s="1">
@@ -18435,7 +18435,7 @@
         <v>8150</v>
       </c>
       <c r="M180" s="13">
-        <f>VALUE(L180)</f>
+        <f t="shared" si="2"/>
         <v>8150</v>
       </c>
       <c r="N180" s="1">
@@ -18511,7 +18511,7 @@
         <v>681</v>
       </c>
       <c r="M181" s="13">
-        <f>VALUE(L181)</f>
+        <f t="shared" si="2"/>
         <v>681</v>
       </c>
       <c r="N181" s="1">
@@ -18587,7 +18587,7 @@
         <v>634</v>
       </c>
       <c r="M182" s="13">
-        <f>VALUE(L182)</f>
+        <f t="shared" si="2"/>
         <v>634</v>
       </c>
       <c r="N182" s="1">
@@ -18663,7 +18663,7 @@
         <v>2064</v>
       </c>
       <c r="M183" s="13">
-        <f>VALUE(L183)</f>
+        <f t="shared" si="2"/>
         <v>2064</v>
       </c>
       <c r="N183" s="1">
@@ -18739,7 +18739,7 @@
         <v>14084</v>
       </c>
       <c r="M184" s="13">
-        <f>VALUE(L184)</f>
+        <f t="shared" si="2"/>
         <v>14084</v>
       </c>
       <c r="N184" s="1">
@@ -18815,7 +18815,7 @@
         <v>352</v>
       </c>
       <c r="M185" s="13">
-        <f>VALUE(L185)</f>
+        <f t="shared" si="2"/>
         <v>352</v>
       </c>
       <c r="N185" s="1">
@@ -18891,7 +18891,7 @@
         <v>7761</v>
       </c>
       <c r="M186" s="13">
-        <f>VALUE(L186)</f>
+        <f t="shared" si="2"/>
         <v>7761</v>
       </c>
       <c r="N186" s="1">
@@ -18967,7 +18967,7 @@
         <v>933</v>
       </c>
       <c r="M187" s="13">
-        <f>VALUE(L187)</f>
+        <f t="shared" si="2"/>
         <v>933</v>
       </c>
       <c r="N187" s="1">
@@ -19043,7 +19043,7 @@
         <v>4853</v>
       </c>
       <c r="M188" s="13">
-        <f>VALUE(L188)</f>
+        <f t="shared" si="2"/>
         <v>4853</v>
       </c>
       <c r="N188" s="1">
@@ -19119,7 +19119,7 @@
         <v>2968</v>
       </c>
       <c r="M189" s="13">
-        <f>VALUE(L189)</f>
+        <f t="shared" si="2"/>
         <v>2968</v>
       </c>
       <c r="N189" s="1">
@@ -19195,7 +19195,7 @@
         <v>1371</v>
       </c>
       <c r="M190" s="13">
-        <f>VALUE(L190)</f>
+        <f t="shared" si="2"/>
         <v>1371</v>
       </c>
       <c r="N190" s="1">
@@ -19271,7 +19271,7 @@
         <v>14</v>
       </c>
       <c r="M191" s="13">
-        <f>VALUE(L191)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="N191" s="1">
@@ -19347,7 +19347,7 @@
         <v>14</v>
       </c>
       <c r="M192" s="13">
-        <f>VALUE(L192)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="N192" s="1">
@@ -19423,7 +19423,7 @@
         <v>31</v>
       </c>
       <c r="M193" s="13">
-        <f>VALUE(L193)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="N193" s="1">
@@ -19499,7 +19499,7 @@
         <v>462</v>
       </c>
       <c r="M194" s="13">
-        <f>VALUE(L194)</f>
+        <f t="shared" ref="M194:M257" si="3">VALUE(L194)</f>
         <v>462</v>
       </c>
       <c r="N194" s="1">
@@ -19575,7 +19575,7 @@
         <v>627</v>
       </c>
       <c r="M195" s="13">
-        <f>VALUE(L195)</f>
+        <f t="shared" si="3"/>
         <v>627</v>
       </c>
       <c r="N195" s="1">
@@ -19651,7 +19651,7 @@
         <v>2371</v>
       </c>
       <c r="M196" s="13">
-        <f>VALUE(L196)</f>
+        <f t="shared" si="3"/>
         <v>2371</v>
       </c>
       <c r="N196" s="1">
@@ -19727,7 +19727,7 @@
         <v>33</v>
       </c>
       <c r="M197" s="13">
-        <f>VALUE(L197)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="N197" s="1">
@@ -19803,7 +19803,7 @@
         <v>1709</v>
       </c>
       <c r="M198" s="13">
-        <f>VALUE(L198)</f>
+        <f t="shared" si="3"/>
         <v>1709</v>
       </c>
       <c r="N198" s="1">
@@ -19879,7 +19879,7 @@
         <v>1112</v>
       </c>
       <c r="M199" s="13">
-        <f>VALUE(L199)</f>
+        <f t="shared" si="3"/>
         <v>1112</v>
       </c>
       <c r="N199" s="1">
@@ -19955,7 +19955,7 @@
         <v>17</v>
       </c>
       <c r="M200" s="13">
-        <f>VALUE(L200)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="N200" s="1">
@@ -20031,7 +20031,7 @@
         <v>476</v>
       </c>
       <c r="M201" s="13">
-        <f>VALUE(L201)</f>
+        <f t="shared" si="3"/>
         <v>476</v>
       </c>
       <c r="N201" s="1">
@@ -20107,7 +20107,7 @@
         <v>1073</v>
       </c>
       <c r="M202" s="13">
-        <f>VALUE(L202)</f>
+        <f t="shared" si="3"/>
         <v>1073</v>
       </c>
       <c r="N202" s="1">
@@ -20183,7 +20183,7 @@
         <v>1077</v>
       </c>
       <c r="M203" s="13">
-        <f>VALUE(L203)</f>
+        <f t="shared" si="3"/>
         <v>1077</v>
       </c>
       <c r="N203" s="1">
@@ -20259,7 +20259,7 @@
         <v>554</v>
       </c>
       <c r="M204" s="13">
-        <f>VALUE(L204)</f>
+        <f t="shared" si="3"/>
         <v>554</v>
       </c>
       <c r="N204" s="1">
@@ -20335,7 +20335,7 @@
         <v>7</v>
       </c>
       <c r="M205" s="13">
-        <f>VALUE(L205)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N205" s="1">
@@ -20411,7 +20411,7 @@
         <v>896</v>
       </c>
       <c r="M206" s="13">
-        <f>VALUE(L206)</f>
+        <f t="shared" si="3"/>
         <v>896</v>
       </c>
       <c r="N206" s="1">
@@ -20487,7 +20487,7 @@
         <v>1458</v>
       </c>
       <c r="M207" s="13">
-        <f>VALUE(L207)</f>
+        <f t="shared" si="3"/>
         <v>1458</v>
       </c>
       <c r="N207" s="1">
@@ -20563,7 +20563,7 @@
         <v>889</v>
       </c>
       <c r="M208" s="13">
-        <f>VALUE(L208)</f>
+        <f t="shared" si="3"/>
         <v>889</v>
       </c>
       <c r="N208" s="1">
@@ -20639,7 +20639,7 @@
         <v>62</v>
       </c>
       <c r="M209" s="13">
-        <f>VALUE(L209)</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="N209" s="1">
@@ -20715,7 +20715,7 @@
         <v>28</v>
       </c>
       <c r="M210" s="13">
-        <f>VALUE(L210)</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="N210" s="1">
@@ -20791,7 +20791,7 @@
         <v>1349</v>
       </c>
       <c r="M211" s="13">
-        <f>VALUE(L211)</f>
+        <f t="shared" si="3"/>
         <v>1349</v>
       </c>
       <c r="N211" s="1">
@@ -20867,7 +20867,7 @@
         <v>152</v>
       </c>
       <c r="M212" s="13">
-        <f>VALUE(L212)</f>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="N212" s="1">
@@ -20943,7 +20943,7 @@
         <v>1490</v>
       </c>
       <c r="M213" s="13">
-        <f>VALUE(L213)</f>
+        <f t="shared" si="3"/>
         <v>1490</v>
       </c>
       <c r="N213" s="1">
@@ -21019,7 +21019,7 @@
         <v>496</v>
       </c>
       <c r="M214" s="13">
-        <f>VALUE(L214)</f>
+        <f t="shared" si="3"/>
         <v>496</v>
       </c>
       <c r="N214" s="1">
@@ -21095,7 +21095,7 @@
         <v>4973</v>
       </c>
       <c r="M215" s="13">
-        <f>VALUE(L215)</f>
+        <f t="shared" si="3"/>
         <v>4973</v>
       </c>
       <c r="N215" s="1">
@@ -21171,7 +21171,7 @@
         <v>254</v>
       </c>
       <c r="M216" s="13">
-        <f>VALUE(L216)</f>
+        <f t="shared" si="3"/>
         <v>254</v>
       </c>
       <c r="N216" s="1">
@@ -21247,7 +21247,7 @@
         <v>134</v>
       </c>
       <c r="M217" s="13">
-        <f>VALUE(L217)</f>
+        <f t="shared" si="3"/>
         <v>134</v>
       </c>
       <c r="N217" s="1">
@@ -21323,7 +21323,7 @@
         <v>5</v>
       </c>
       <c r="M218" s="13">
-        <f>VALUE(L218)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="N218" s="1">
@@ -21399,7 +21399,7 @@
         <v>714</v>
       </c>
       <c r="M219" s="13">
-        <f>VALUE(L219)</f>
+        <f t="shared" si="3"/>
         <v>714</v>
       </c>
       <c r="N219" s="1">
@@ -21475,7 +21475,7 @@
         <v>92</v>
       </c>
       <c r="M220" s="13">
-        <f>VALUE(L220)</f>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="N220" s="1">
@@ -21551,7 +21551,7 @@
         <v>858</v>
       </c>
       <c r="M221" s="13">
-        <f>VALUE(L221)</f>
+        <f t="shared" si="3"/>
         <v>858</v>
       </c>
       <c r="N221" s="1">
@@ -21627,7 +21627,7 @@
         <v>163</v>
       </c>
       <c r="M222" s="13">
-        <f>VALUE(L222)</f>
+        <f t="shared" si="3"/>
         <v>163</v>
       </c>
       <c r="N222" s="1">
@@ -21703,7 +21703,7 @@
         <v>69</v>
       </c>
       <c r="M223" s="13">
-        <f>VALUE(L223)</f>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="N223" s="1">
@@ -21779,7 +21779,7 @@
         <v>1058</v>
       </c>
       <c r="M224" s="13">
-        <f>VALUE(L224)</f>
+        <f t="shared" si="3"/>
         <v>1058</v>
       </c>
       <c r="N224" s="1">
@@ -21855,7 +21855,7 @@
         <v>19</v>
       </c>
       <c r="M225" s="13">
-        <f>VALUE(L225)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="N225" s="1">
@@ -21931,7 +21931,7 @@
         <v>76</v>
       </c>
       <c r="M226" s="13">
-        <f>VALUE(L226)</f>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="N226" s="1">
@@ -22007,7 +22007,7 @@
         <v>145</v>
       </c>
       <c r="M227" s="13">
-        <f>VALUE(L227)</f>
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
       <c r="N227" s="1">
@@ -22083,7 +22083,7 @@
         <v>531</v>
       </c>
       <c r="M228" s="13">
-        <f>VALUE(L228)</f>
+        <f t="shared" si="3"/>
         <v>531</v>
       </c>
       <c r="N228" s="1">
@@ -22159,7 +22159,7 @@
         <v>101</v>
       </c>
       <c r="M229" s="13">
-        <f>VALUE(L229)</f>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="N229" s="1">
@@ -22235,7 +22235,7 @@
         <v>132</v>
       </c>
       <c r="M230" s="13">
-        <f>VALUE(L230)</f>
+        <f t="shared" si="3"/>
         <v>132</v>
       </c>
       <c r="N230" s="1">
@@ -22311,7 +22311,7 @@
         <v>183</v>
       </c>
       <c r="M231" s="13">
-        <f>VALUE(L231)</f>
+        <f t="shared" si="3"/>
         <v>183</v>
       </c>
       <c r="N231" s="1">
@@ -22387,7 +22387,7 @@
         <v>56</v>
       </c>
       <c r="M232" s="13">
-        <f>VALUE(L232)</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="N232" s="1">
@@ -22463,7 +22463,7 @@
         <v>10</v>
       </c>
       <c r="M233" s="13">
-        <f>VALUE(L233)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="N233" s="1">
@@ -22539,7 +22539,7 @@
         <v>55</v>
       </c>
       <c r="M234" s="13">
-        <f>VALUE(L234)</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="N234" s="1">
@@ -22615,7 +22615,7 @@
         <v>145</v>
       </c>
       <c r="M235" s="13">
-        <f>VALUE(L235)</f>
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
       <c r="N235" s="1">
@@ -22691,7 +22691,7 @@
         <v>292</v>
       </c>
       <c r="M236" s="13">
-        <f>VALUE(L236)</f>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="N236" s="1">
@@ -22767,7 +22767,7 @@
         <v>18</v>
       </c>
       <c r="M237" s="13">
-        <f>VALUE(L237)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="N237" s="1">
@@ -22843,7 +22843,7 @@
         <v>460</v>
       </c>
       <c r="M238" s="13">
-        <f>VALUE(L238)</f>
+        <f t="shared" si="3"/>
         <v>460</v>
       </c>
       <c r="N238" s="1">
@@ -22919,7 +22919,7 @@
         <v>9</v>
       </c>
       <c r="M239" s="13">
-        <f>VALUE(L239)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="N239" s="1">
@@ -22995,7 +22995,7 @@
         <v>64</v>
       </c>
       <c r="M240" s="13">
-        <f>VALUE(L240)</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="N240" s="1">
@@ -23071,7 +23071,7 @@
         <v>2317</v>
       </c>
       <c r="M241" s="13">
-        <f>VALUE(L241)</f>
+        <f t="shared" si="3"/>
         <v>2317</v>
       </c>
       <c r="N241" s="1">
@@ -23147,7 +23147,7 @@
         <v>1560</v>
       </c>
       <c r="M242" s="13">
-        <f>VALUE(L242)</f>
+        <f t="shared" si="3"/>
         <v>1560</v>
       </c>
       <c r="N242" s="1">
@@ -23223,7 +23223,7 @@
         <v>871</v>
       </c>
       <c r="M243" s="13">
-        <f>VALUE(L243)</f>
+        <f t="shared" si="3"/>
         <v>871</v>
       </c>
       <c r="N243" s="1">
@@ -23299,7 +23299,7 @@
         <v>423</v>
       </c>
       <c r="M244" s="13">
-        <f>VALUE(L244)</f>
+        <f t="shared" si="3"/>
         <v>423</v>
       </c>
       <c r="N244" s="1">
@@ -23375,7 +23375,7 @@
         <v>1527</v>
       </c>
       <c r="M245" s="13">
-        <f>VALUE(L245)</f>
+        <f t="shared" si="3"/>
         <v>1527</v>
       </c>
       <c r="N245" s="1">
@@ -23451,7 +23451,7 @@
         <v>821</v>
       </c>
       <c r="M246" s="13">
-        <f>VALUE(L246)</f>
+        <f t="shared" si="3"/>
         <v>821</v>
       </c>
       <c r="N246" s="1">
@@ -23527,7 +23527,7 @@
         <v>24</v>
       </c>
       <c r="M247" s="13">
-        <f>VALUE(L247)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="N247" s="1">
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="M248" s="13">
-        <f>VALUE(L248)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N248" s="1">
@@ -23667,7 +23667,7 @@
         <v>8</v>
       </c>
       <c r="M249" s="13">
-        <f>VALUE(L249)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N249" s="1">
@@ -23743,7 +23743,7 @@
         <v>2496</v>
       </c>
       <c r="M250" s="13">
-        <f>VALUE(L250)</f>
+        <f t="shared" si="3"/>
         <v>2496</v>
       </c>
       <c r="N250" s="1">
@@ -23819,7 +23819,7 @@
         <v>29</v>
       </c>
       <c r="M251" s="13">
-        <f>VALUE(L251)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="N251" s="1">
@@ -23895,7 +23895,7 @@
         <v>66</v>
       </c>
       <c r="M252" s="13">
-        <f>VALUE(L252)</f>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="N252" s="1">
@@ -23971,7 +23971,7 @@
         <v>2666</v>
       </c>
       <c r="M253" s="13">
-        <f>VALUE(L253)</f>
+        <f t="shared" si="3"/>
         <v>2666</v>
       </c>
       <c r="N253" s="1">
@@ -24047,7 +24047,7 @@
         <v>93</v>
       </c>
       <c r="M254" s="13">
-        <f>VALUE(L254)</f>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="N254" s="1">
@@ -24123,7 +24123,7 @@
         <v>4</v>
       </c>
       <c r="M255" s="13">
-        <f>VALUE(L255)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="N255" s="1">
@@ -24199,7 +24199,7 @@
         <v>45</v>
       </c>
       <c r="M256" s="13">
-        <f>VALUE(L256)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="N256" s="1">
@@ -24275,7 +24275,7 @@
         <v>158</v>
       </c>
       <c r="M257" s="13">
-        <f>VALUE(L257)</f>
+        <f t="shared" si="3"/>
         <v>158</v>
       </c>
       <c r="N257" s="1">
@@ -24351,7 +24351,7 @@
         <v>25</v>
       </c>
       <c r="M258" s="13">
-        <f>VALUE(L258)</f>
+        <f t="shared" ref="M258:M321" si="4">VALUE(L258)</f>
         <v>25</v>
       </c>
       <c r="N258" s="1">
@@ -24427,7 +24427,7 @@
         <v>28</v>
       </c>
       <c r="M259" s="13">
-        <f>VALUE(L259)</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="N259" s="1">
@@ -24503,7 +24503,7 @@
         <v>70</v>
       </c>
       <c r="M260" s="13">
-        <f>VALUE(L260)</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="N260" s="1">
@@ -24579,7 +24579,7 @@
         <v>110</v>
       </c>
       <c r="M261" s="13">
-        <f>VALUE(L261)</f>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="N261" s="1">
@@ -24655,7 +24655,7 @@
         <v>1159</v>
       </c>
       <c r="M262" s="13">
-        <f>VALUE(L262)</f>
+        <f t="shared" si="4"/>
         <v>1159</v>
       </c>
       <c r="N262" s="1">
@@ -24731,7 +24731,7 @@
         <v>108</v>
       </c>
       <c r="M263" s="13">
-        <f>VALUE(L263)</f>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="N263" s="1">
@@ -24807,7 +24807,7 @@
         <v>1305</v>
       </c>
       <c r="M264" s="13">
-        <f>VALUE(L264)</f>
+        <f t="shared" si="4"/>
         <v>1305</v>
       </c>
       <c r="N264" s="1">
@@ -24883,7 +24883,7 @@
         <v>122</v>
       </c>
       <c r="M265" s="13">
-        <f>VALUE(L265)</f>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="N265" s="1">
@@ -24959,7 +24959,7 @@
         <v>48</v>
       </c>
       <c r="M266" s="13">
-        <f>VALUE(L266)</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="N266" s="1">
@@ -25035,7 +25035,7 @@
         <v>144</v>
       </c>
       <c r="M267" s="13">
-        <f>VALUE(L267)</f>
+        <f t="shared" si="4"/>
         <v>144</v>
       </c>
       <c r="N267" s="1">
@@ -25111,7 +25111,7 @@
         <v>32</v>
       </c>
       <c r="M268" s="13">
-        <f>VALUE(L268)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="N268" s="1">
@@ -25187,7 +25187,7 @@
         <v>82</v>
       </c>
       <c r="M269" s="13">
-        <f>VALUE(L269)</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="N269" s="1">
@@ -25263,7 +25263,7 @@
         <v>113</v>
       </c>
       <c r="M270" s="13">
-        <f>VALUE(L270)</f>
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
       <c r="N270" s="1">
@@ -25339,7 +25339,7 @@
         <v>200</v>
       </c>
       <c r="M271" s="13">
-        <f>VALUE(L271)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="N271" s="1">
@@ -25415,7 +25415,7 @@
         <v>21</v>
       </c>
       <c r="M272" s="13">
-        <f>VALUE(L272)</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="N272" s="1">
@@ -25491,7 +25491,7 @@
         <v>10611</v>
       </c>
       <c r="M273" s="13">
-        <f>VALUE(L273)</f>
+        <f t="shared" si="4"/>
         <v>10611</v>
       </c>
       <c r="N273" s="1">
@@ -25567,7 +25567,7 @@
         <v>2250</v>
       </c>
       <c r="M274" s="13">
-        <f>VALUE(L274)</f>
+        <f t="shared" si="4"/>
         <v>2250</v>
       </c>
       <c r="N274" s="1">
@@ -25643,7 +25643,7 @@
         <v>18</v>
       </c>
       <c r="M275" s="13">
-        <f>VALUE(L275)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="N275" s="1">
@@ -25719,7 +25719,7 @@
         <v>1940</v>
       </c>
       <c r="M276" s="13">
-        <f>VALUE(L276)</f>
+        <f t="shared" si="4"/>
         <v>1940</v>
       </c>
       <c r="N276" s="1">
@@ -25795,7 +25795,7 @@
         <v>25</v>
       </c>
       <c r="M277" s="13">
-        <f>VALUE(L277)</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N277" s="1">
@@ -25871,7 +25871,7 @@
         <v>32</v>
       </c>
       <c r="M278" s="13">
-        <f>VALUE(L278)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="N278" s="1">
@@ -25947,7 +25947,7 @@
         <v>421</v>
       </c>
       <c r="M279" s="13">
-        <f>VALUE(L279)</f>
+        <f t="shared" si="4"/>
         <v>421</v>
       </c>
       <c r="N279" s="1">
@@ -26023,7 +26023,7 @@
         <v>6</v>
       </c>
       <c r="M280" s="13">
-        <f>VALUE(L280)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="N280" s="1">
@@ -26099,7 +26099,7 @@
         <v>507</v>
       </c>
       <c r="M281" s="13">
-        <f>VALUE(L281)</f>
+        <f t="shared" si="4"/>
         <v>507</v>
       </c>
       <c r="N281" s="1">
@@ -26175,7 +26175,7 @@
         <v>276</v>
       </c>
       <c r="M282" s="13">
-        <f>VALUE(L282)</f>
+        <f t="shared" si="4"/>
         <v>276</v>
       </c>
       <c r="N282" s="1">
@@ -26251,7 +26251,7 @@
         <v>6</v>
       </c>
       <c r="M283" s="13">
-        <f>VALUE(L283)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="N283" s="1">
@@ -26327,7 +26327,7 @@
         <v>32</v>
       </c>
       <c r="M284" s="13">
-        <f>VALUE(L284)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="N284" s="1">
@@ -26403,7 +26403,7 @@
         <v>56</v>
       </c>
       <c r="M285" s="13">
-        <f>VALUE(L285)</f>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="N285" s="1">
@@ -26479,7 +26479,7 @@
         <v>17</v>
       </c>
       <c r="M286" s="13">
-        <f>VALUE(L286)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="N286" s="1">
@@ -26555,7 +26555,7 @@
         <v>39</v>
       </c>
       <c r="M287" s="13">
-        <f>VALUE(L287)</f>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="N287" s="1">
@@ -26631,7 +26631,7 @@
         <v>165</v>
       </c>
       <c r="M288" s="13">
-        <f>VALUE(L288)</f>
+        <f t="shared" si="4"/>
         <v>165</v>
       </c>
       <c r="N288" s="1">
@@ -26707,7 +26707,7 @@
         <v>314</v>
       </c>
       <c r="M289" s="13">
-        <f>VALUE(L289)</f>
+        <f t="shared" si="4"/>
         <v>314</v>
       </c>
       <c r="N289" s="1">
@@ -26783,7 +26783,7 @@
         <v>941</v>
       </c>
       <c r="M290" s="13">
-        <f>VALUE(L290)</f>
+        <f t="shared" si="4"/>
         <v>941</v>
       </c>
       <c r="N290" s="1">
@@ -26859,7 +26859,7 @@
         <v>7</v>
       </c>
       <c r="M291" s="13">
-        <f>VALUE(L291)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="N291" s="1">
@@ -26935,7 +26935,7 @@
         <v>32</v>
       </c>
       <c r="M292" s="13">
-        <f>VALUE(L292)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="N292" s="1">
@@ -27011,7 +27011,7 @@
         <v>805</v>
       </c>
       <c r="M293" s="13">
-        <f>VALUE(L293)</f>
+        <f t="shared" si="4"/>
         <v>805</v>
       </c>
       <c r="N293" s="1">
@@ -27087,7 +27087,7 @@
         <v>2245</v>
       </c>
       <c r="M294" s="13">
-        <f>VALUE(L294)</f>
+        <f t="shared" si="4"/>
         <v>2245</v>
       </c>
       <c r="N294" s="1">
@@ -27163,7 +27163,7 @@
         <v>259</v>
       </c>
       <c r="M295" s="13">
-        <f>VALUE(L295)</f>
+        <f t="shared" si="4"/>
         <v>259</v>
       </c>
       <c r="N295" s="1">
@@ -27239,7 +27239,7 @@
         <v>6378</v>
       </c>
       <c r="M296" s="13">
-        <f>VALUE(L296)</f>
+        <f t="shared" si="4"/>
         <v>6378</v>
       </c>
       <c r="N296" s="1">
@@ -27315,7 +27315,7 @@
         <v>8405</v>
       </c>
       <c r="M297" s="13">
-        <f>VALUE(L297)</f>
+        <f t="shared" si="4"/>
         <v>8405</v>
       </c>
       <c r="N297" s="1">
@@ -27391,7 +27391,7 @@
         <v>7013</v>
       </c>
       <c r="M298" s="13">
-        <f>VALUE(L298)</f>
+        <f t="shared" si="4"/>
         <v>7013</v>
       </c>
       <c r="N298" s="1">
@@ -27467,7 +27467,7 @@
         <v>73</v>
       </c>
       <c r="M299" s="13">
-        <f>VALUE(L299)</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="N299" s="1">
@@ -27543,7 +27543,7 @@
         <v>13680</v>
       </c>
       <c r="M300" s="13">
-        <f>VALUE(L300)</f>
+        <f t="shared" si="4"/>
         <v>13680</v>
       </c>
       <c r="N300" s="1">
@@ -27619,7 +27619,7 @@
         <v>3547</v>
       </c>
       <c r="M301" s="13">
-        <f>VALUE(L301)</f>
+        <f t="shared" si="4"/>
         <v>3547</v>
       </c>
       <c r="N301" s="1">
@@ -27695,7 +27695,7 @@
         <v>1954</v>
       </c>
       <c r="M302" s="13">
-        <f>VALUE(L302)</f>
+        <f t="shared" si="4"/>
         <v>1954</v>
       </c>
       <c r="N302" s="1">
@@ -27771,7 +27771,7 @@
         <v>856</v>
       </c>
       <c r="M303" s="13">
-        <f>VALUE(L303)</f>
+        <f t="shared" si="4"/>
         <v>856</v>
       </c>
       <c r="N303" s="1">
@@ -27847,7 +27847,7 @@
         <v>1097</v>
       </c>
       <c r="M304" s="13">
-        <f>VALUE(L304)</f>
+        <f t="shared" si="4"/>
         <v>1097</v>
       </c>
       <c r="N304" s="1">
@@ -27923,7 +27923,7 @@
         <v>3146</v>
       </c>
       <c r="M305" s="13">
-        <f>VALUE(L305)</f>
+        <f t="shared" si="4"/>
         <v>3146</v>
       </c>
       <c r="N305" s="1">
@@ -27999,7 +27999,7 @@
         <v>5478</v>
       </c>
       <c r="M306" s="13">
-        <f>VALUE(L306)</f>
+        <f t="shared" si="4"/>
         <v>5478</v>
       </c>
       <c r="N306" s="1">
@@ -28075,7 +28075,7 @@
         <v>2378</v>
       </c>
       <c r="M307" s="13">
-        <f>VALUE(L307)</f>
+        <f t="shared" si="4"/>
         <v>2378</v>
       </c>
       <c r="N307" s="1">
@@ -28151,7 +28151,7 @@
         <v>4376</v>
       </c>
       <c r="M308" s="13">
-        <f>VALUE(L308)</f>
+        <f t="shared" si="4"/>
         <v>4376</v>
       </c>
       <c r="N308" s="1">
@@ -28227,7 +28227,7 @@
         <v>978</v>
       </c>
       <c r="M309" s="13">
-        <f>VALUE(L309)</f>
+        <f t="shared" si="4"/>
         <v>978</v>
       </c>
       <c r="N309" s="1">
@@ -28303,7 +28303,7 @@
         <v>2181</v>
       </c>
       <c r="M310" s="13">
-        <f>VALUE(L310)</f>
+        <f t="shared" si="4"/>
         <v>2181</v>
       </c>
       <c r="N310" s="1">
@@ -28379,7 +28379,7 @@
         <v>3582</v>
       </c>
       <c r="M311" s="13">
-        <f>VALUE(L311)</f>
+        <f t="shared" si="4"/>
         <v>3582</v>
       </c>
       <c r="N311" s="1">
@@ -28455,7 +28455,7 @@
         <v>837</v>
       </c>
       <c r="M312" s="13">
-        <f>VALUE(L312)</f>
+        <f t="shared" si="4"/>
         <v>837</v>
       </c>
       <c r="N312" s="1">
@@ -28531,7 +28531,7 @@
         <v>1420</v>
       </c>
       <c r="M313" s="13">
-        <f>VALUE(L313)</f>
+        <f t="shared" si="4"/>
         <v>1420</v>
       </c>
       <c r="N313" s="1">
@@ -28607,7 +28607,7 @@
         <v>1481</v>
       </c>
       <c r="M314" s="13">
-        <f>VALUE(L314)</f>
+        <f t="shared" si="4"/>
         <v>1481</v>
       </c>
       <c r="N314" s="1">
@@ -28683,7 +28683,7 @@
         <v>15504</v>
       </c>
       <c r="M315" s="13">
-        <f>VALUE(L315)</f>
+        <f t="shared" si="4"/>
         <v>15504</v>
       </c>
       <c r="N315" s="1">
@@ -28759,7 +28759,7 @@
         <v>488</v>
       </c>
       <c r="M316" s="13">
-        <f>VALUE(L316)</f>
+        <f t="shared" si="4"/>
         <v>488</v>
       </c>
       <c r="N316" s="1">
@@ -28835,7 +28835,7 @@
         <v>12232</v>
       </c>
       <c r="M317" s="13">
-        <f>VALUE(L317)</f>
+        <f t="shared" si="4"/>
         <v>12232</v>
       </c>
       <c r="N317" s="1">
@@ -28911,7 +28911,7 @@
         <v>7223</v>
       </c>
       <c r="M318" s="13">
-        <f>VALUE(L318)</f>
+        <f t="shared" si="4"/>
         <v>7223</v>
       </c>
       <c r="N318" s="1">
@@ -28987,7 +28987,7 @@
         <v>1995</v>
       </c>
       <c r="M319" s="13">
-        <f>VALUE(L319)</f>
+        <f t="shared" si="4"/>
         <v>1995</v>
       </c>
       <c r="N319" s="1">
@@ -29063,7 +29063,7 @@
         <v>1769</v>
       </c>
       <c r="M320" s="13">
-        <f>VALUE(L320)</f>
+        <f t="shared" si="4"/>
         <v>1769</v>
       </c>
       <c r="N320" s="1">
@@ -29139,7 +29139,7 @@
         <v>3652</v>
       </c>
       <c r="M321" s="13">
-        <f>VALUE(L321)</f>
+        <f t="shared" si="4"/>
         <v>3652</v>
       </c>
       <c r="N321" s="1">
@@ -29215,7 +29215,7 @@
         <v>2332</v>
       </c>
       <c r="M322" s="13">
-        <f>VALUE(L322)</f>
+        <f t="shared" ref="M322:M385" si="5">VALUE(L322)</f>
         <v>2332</v>
       </c>
       <c r="N322" s="1">
@@ -29291,7 +29291,7 @@
         <v>3842</v>
       </c>
       <c r="M323" s="13">
-        <f>VALUE(L323)</f>
+        <f t="shared" si="5"/>
         <v>3842</v>
       </c>
       <c r="N323" s="1">
@@ -29367,7 +29367,7 @@
         <v>1293</v>
       </c>
       <c r="M324" s="13">
-        <f>VALUE(L324)</f>
+        <f t="shared" si="5"/>
         <v>1293</v>
       </c>
       <c r="N324" s="1">
@@ -29443,7 +29443,7 @@
         <v>941</v>
       </c>
       <c r="M325" s="13">
-        <f>VALUE(L325)</f>
+        <f t="shared" si="5"/>
         <v>941</v>
       </c>
       <c r="N325" s="1">
@@ -29519,7 +29519,7 @@
         <v>3453</v>
       </c>
       <c r="M326" s="13">
-        <f>VALUE(L326)</f>
+        <f t="shared" si="5"/>
         <v>3453</v>
       </c>
       <c r="N326" s="1">
@@ -29595,7 +29595,7 @@
         <v>3213</v>
       </c>
       <c r="M327" s="13">
-        <f>VALUE(L327)</f>
+        <f t="shared" si="5"/>
         <v>3213</v>
       </c>
       <c r="N327" s="1">
@@ -29671,7 +29671,7 @@
         <v>2336</v>
       </c>
       <c r="M328" s="13">
-        <f>VALUE(L328)</f>
+        <f t="shared" si="5"/>
         <v>2336</v>
       </c>
       <c r="N328" s="1">
@@ -29747,7 +29747,7 @@
         <v>1021</v>
       </c>
       <c r="M329" s="13">
-        <f>VALUE(L329)</f>
+        <f t="shared" si="5"/>
         <v>1021</v>
       </c>
       <c r="N329" s="1">
@@ -29823,7 +29823,7 @@
         <v>1574</v>
       </c>
       <c r="M330" s="13">
-        <f>VALUE(L330)</f>
+        <f t="shared" si="5"/>
         <v>1574</v>
       </c>
       <c r="N330" s="1">
@@ -29899,7 +29899,7 @@
         <v>1764</v>
       </c>
       <c r="M331" s="13">
-        <f>VALUE(L331)</f>
+        <f t="shared" si="5"/>
         <v>1764</v>
       </c>
       <c r="N331" s="1">
@@ -29975,7 +29975,7 @@
         <v>2593</v>
       </c>
       <c r="M332" s="13">
-        <f>VALUE(L332)</f>
+        <f t="shared" si="5"/>
         <v>2593</v>
       </c>
       <c r="N332" s="1">
@@ -30051,7 +30051,7 @@
         <v>3348</v>
       </c>
       <c r="M333" s="13">
-        <f>VALUE(L333)</f>
+        <f t="shared" si="5"/>
         <v>3348</v>
       </c>
       <c r="N333" s="1">
@@ -30127,7 +30127,7 @@
         <v>1221</v>
       </c>
       <c r="M334" s="13">
-        <f>VALUE(L334)</f>
+        <f t="shared" si="5"/>
         <v>1221</v>
       </c>
       <c r="N334" s="1">
@@ -30203,7 +30203,7 @@
         <v>3467</v>
       </c>
       <c r="M335" s="13">
-        <f>VALUE(L335)</f>
+        <f t="shared" si="5"/>
         <v>3467</v>
       </c>
       <c r="N335" s="1">
@@ -30279,7 +30279,7 @@
         <v>1890</v>
       </c>
       <c r="M336" s="13">
-        <f>VALUE(L336)</f>
+        <f t="shared" si="5"/>
         <v>1890</v>
       </c>
       <c r="N336" s="1">
@@ -30355,7 +30355,7 @@
         <v>75</v>
       </c>
       <c r="M337" s="13">
-        <f>VALUE(L337)</f>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="N337" s="1">
@@ -30431,7 +30431,7 @@
         <v>3940</v>
       </c>
       <c r="M338" s="13">
-        <f>VALUE(L338)</f>
+        <f t="shared" si="5"/>
         <v>3940</v>
       </c>
       <c r="N338" s="1">
@@ -30507,7 +30507,7 @@
         <v>1569</v>
       </c>
       <c r="M339" s="13">
-        <f>VALUE(L339)</f>
+        <f t="shared" si="5"/>
         <v>1569</v>
       </c>
       <c r="N339" s="1">
@@ -30583,7 +30583,7 @@
         <v>1328</v>
       </c>
       <c r="M340" s="13">
-        <f>VALUE(L340)</f>
+        <f t="shared" si="5"/>
         <v>1328</v>
       </c>
       <c r="N340" s="1">
@@ -30659,7 +30659,7 @@
         <v>2570</v>
       </c>
       <c r="M341" s="13">
-        <f>VALUE(L341)</f>
+        <f t="shared" si="5"/>
         <v>2570</v>
       </c>
       <c r="N341" s="1">
@@ -30735,7 +30735,7 @@
         <v>184</v>
       </c>
       <c r="M342" s="13">
-        <f>VALUE(L342)</f>
+        <f t="shared" si="5"/>
         <v>184</v>
       </c>
       <c r="N342" s="1">
@@ -30811,7 +30811,7 @@
         <v>1688</v>
       </c>
       <c r="M343" s="13">
-        <f>VALUE(L343)</f>
+        <f t="shared" si="5"/>
         <v>1688</v>
       </c>
       <c r="N343" s="1">
@@ -30887,7 +30887,7 @@
         <v>421</v>
       </c>
       <c r="M344" s="13">
-        <f>VALUE(L344)</f>
+        <f t="shared" si="5"/>
         <v>421</v>
       </c>
       <c r="N344" s="1">
@@ -30963,7 +30963,7 @@
         <v>303</v>
       </c>
       <c r="M345" s="13">
-        <f>VALUE(L345)</f>
+        <f t="shared" si="5"/>
         <v>303</v>
       </c>
       <c r="N345" s="1">
@@ -31039,7 +31039,7 @@
         <v>1198</v>
       </c>
       <c r="M346" s="13">
-        <f>VALUE(L346)</f>
+        <f t="shared" si="5"/>
         <v>1198</v>
       </c>
       <c r="N346" s="1">
@@ -31115,7 +31115,7 @@
         <v>1285</v>
       </c>
       <c r="M347" s="13">
-        <f>VALUE(L347)</f>
+        <f t="shared" si="5"/>
         <v>1285</v>
       </c>
       <c r="N347" s="1">
@@ -31191,7 +31191,7 @@
         <v>986</v>
       </c>
       <c r="M348" s="13">
-        <f>VALUE(L348)</f>
+        <f t="shared" si="5"/>
         <v>986</v>
       </c>
       <c r="N348" s="1">
@@ -31267,7 +31267,7 @@
         <v>985</v>
       </c>
       <c r="M349" s="13">
-        <f>VALUE(L349)</f>
+        <f t="shared" si="5"/>
         <v>985</v>
       </c>
       <c r="N349" s="1">
@@ -31343,7 +31343,7 @@
         <v>1108</v>
       </c>
       <c r="M350" s="13">
-        <f>VALUE(L350)</f>
+        <f t="shared" si="5"/>
         <v>1108</v>
       </c>
       <c r="N350" s="1">
@@ -31419,7 +31419,7 @@
         <v>771</v>
       </c>
       <c r="M351" s="13">
-        <f>VALUE(L351)</f>
+        <f t="shared" si="5"/>
         <v>771</v>
       </c>
       <c r="N351" s="1">
@@ -31495,7 +31495,7 @@
         <v>113</v>
       </c>
       <c r="M352" s="13">
-        <f>VALUE(L352)</f>
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
       <c r="N352" s="1">
@@ -31571,7 +31571,7 @@
         <v>672</v>
       </c>
       <c r="M353" s="13">
-        <f>VALUE(L353)</f>
+        <f t="shared" si="5"/>
         <v>672</v>
       </c>
       <c r="N353" s="1">
@@ -31647,7 +31647,7 @@
         <v>554</v>
       </c>
       <c r="M354" s="13">
-        <f>VALUE(L354)</f>
+        <f t="shared" si="5"/>
         <v>554</v>
       </c>
       <c r="N354" s="1">
@@ -31723,7 +31723,7 @@
         <v>286</v>
       </c>
       <c r="M355" s="13">
-        <f>VALUE(L355)</f>
+        <f t="shared" si="5"/>
         <v>286</v>
       </c>
       <c r="N355" s="1">
@@ -31799,7 +31799,7 @@
         <v>311</v>
       </c>
       <c r="M356" s="13">
-        <f>VALUE(L356)</f>
+        <f t="shared" si="5"/>
         <v>311</v>
       </c>
       <c r="N356" s="1">
@@ -31875,7 +31875,7 @@
         <v>6586</v>
       </c>
       <c r="M357" s="13">
-        <f>VALUE(L357)</f>
+        <f t="shared" si="5"/>
         <v>6586</v>
       </c>
       <c r="N357" s="1">
@@ -31951,7 +31951,7 @@
         <v>13055</v>
       </c>
       <c r="M358" s="13">
-        <f>VALUE(L358)</f>
+        <f t="shared" si="5"/>
         <v>13055</v>
       </c>
       <c r="N358" s="1">
@@ -32027,7 +32027,7 @@
         <v>126595</v>
       </c>
       <c r="M359" s="13">
-        <f>VALUE(L359)</f>
+        <f t="shared" si="5"/>
         <v>126595</v>
       </c>
       <c r="N359" s="1">
@@ -32103,7 +32103,7 @@
         <v>30853</v>
       </c>
       <c r="M360" s="13">
-        <f>VALUE(L360)</f>
+        <f t="shared" si="5"/>
         <v>30853</v>
       </c>
       <c r="N360" s="1">
@@ -32179,7 +32179,7 @@
         <v>2804</v>
       </c>
       <c r="M361" s="13">
-        <f>VALUE(L361)</f>
+        <f t="shared" si="5"/>
         <v>2804</v>
       </c>
       <c r="N361" s="1">
@@ -32255,7 +32255,7 @@
         <v>13190</v>
       </c>
       <c r="M362" s="13">
-        <f>VALUE(L362)</f>
+        <f t="shared" si="5"/>
         <v>13190</v>
       </c>
       <c r="N362" s="1">
@@ -32331,7 +32331,7 @@
         <v>22277</v>
       </c>
       <c r="M363" s="13">
-        <f>VALUE(L363)</f>
+        <f t="shared" si="5"/>
         <v>22277</v>
       </c>
       <c r="N363" s="1">
@@ -32407,7 +32407,7 @@
         <v>1277</v>
       </c>
       <c r="M364" s="13">
-        <f>VALUE(L364)</f>
+        <f t="shared" si="5"/>
         <v>1277</v>
       </c>
       <c r="N364" s="1">
@@ -32483,7 +32483,7 @@
         <v>4364</v>
       </c>
       <c r="M365" s="13">
-        <f>VALUE(L365)</f>
+        <f t="shared" si="5"/>
         <v>4364</v>
       </c>
       <c r="N365" s="1">
@@ -32559,7 +32559,7 @@
         <v>40601</v>
       </c>
       <c r="M366" s="13">
-        <f>VALUE(L366)</f>
+        <f t="shared" si="5"/>
         <v>40601</v>
       </c>
       <c r="N366" s="1">
@@ -32635,7 +32635,7 @@
         <v>18393</v>
       </c>
       <c r="M367" s="13">
-        <f>VALUE(L367)</f>
+        <f t="shared" si="5"/>
         <v>18393</v>
       </c>
       <c r="N367" s="1">
@@ -32711,7 +32711,7 @@
         <v>8350</v>
       </c>
       <c r="M368" s="13">
-        <f>VALUE(L368)</f>
+        <f t="shared" si="5"/>
         <v>8350</v>
       </c>
       <c r="N368" s="1">
@@ -32787,7 +32787,7 @@
         <v>2472</v>
       </c>
       <c r="M369" s="13">
-        <f>VALUE(L369)</f>
+        <f t="shared" si="5"/>
         <v>2472</v>
       </c>
       <c r="N369" s="1">
@@ -32863,7 +32863,7 @@
         <v>44170</v>
       </c>
       <c r="M370" s="13">
-        <f>VALUE(L370)</f>
+        <f t="shared" si="5"/>
         <v>44170</v>
       </c>
       <c r="N370" s="1">
@@ -32939,7 +32939,7 @@
         <v>1776</v>
       </c>
       <c r="M371" s="13">
-        <f>VALUE(L371)</f>
+        <f t="shared" si="5"/>
         <v>1776</v>
       </c>
       <c r="N371" s="1">
@@ -33015,7 +33015,7 @@
         <v>20457</v>
       </c>
       <c r="M372" s="13">
-        <f>VALUE(L372)</f>
+        <f t="shared" si="5"/>
         <v>20457</v>
       </c>
       <c r="N372" s="1">
@@ -33091,7 +33091,7 @@
         <v>47656</v>
       </c>
       <c r="M373" s="13">
-        <f>VALUE(L373)</f>
+        <f t="shared" si="5"/>
         <v>47656</v>
       </c>
       <c r="N373" s="1">
@@ -33167,7 +33167,7 @@
         <v>4574</v>
       </c>
       <c r="M374" s="13">
-        <f>VALUE(L374)</f>
+        <f t="shared" si="5"/>
         <v>4574</v>
       </c>
       <c r="N374" s="1">
@@ -33243,7 +33243,7 @@
         <v>7453</v>
       </c>
       <c r="M375" s="13">
-        <f>VALUE(L375)</f>
+        <f t="shared" si="5"/>
         <v>7453</v>
       </c>
       <c r="N375" s="1">
@@ -33319,7 +33319,7 @@
         <v>1023</v>
       </c>
       <c r="M376" s="13">
-        <f>VALUE(L376)</f>
+        <f t="shared" si="5"/>
         <v>1023</v>
       </c>
       <c r="N376" s="1">
@@ -33395,7 +33395,7 @@
         <v>1369</v>
       </c>
       <c r="M377" s="13">
-        <f>VALUE(L377)</f>
+        <f t="shared" si="5"/>
         <v>1369</v>
       </c>
       <c r="N377" s="1">
@@ -33471,7 +33471,7 @@
         <v>7793</v>
       </c>
       <c r="M378" s="13">
-        <f>VALUE(L378)</f>
+        <f t="shared" si="5"/>
         <v>7793</v>
       </c>
       <c r="N378" s="1">
@@ -33547,7 +33547,7 @@
         <v>3474</v>
       </c>
       <c r="M379" s="13">
-        <f>VALUE(L379)</f>
+        <f t="shared" si="5"/>
         <v>3474</v>
       </c>
       <c r="N379" s="1">
@@ -33623,7 +33623,7 @@
         <v>2134</v>
       </c>
       <c r="M380" s="13">
-        <f>VALUE(L380)</f>
+        <f t="shared" si="5"/>
         <v>2134</v>
       </c>
       <c r="N380" s="1">
@@ -33699,7 +33699,7 @@
         <v>1723</v>
       </c>
       <c r="M381" s="13">
-        <f>VALUE(L381)</f>
+        <f t="shared" si="5"/>
         <v>1723</v>
       </c>
       <c r="N381" s="1">
@@ -33775,7 +33775,7 @@
         <v>1403</v>
       </c>
       <c r="M382" s="13">
-        <f>VALUE(L382)</f>
+        <f t="shared" si="5"/>
         <v>1403</v>
       </c>
       <c r="N382" s="1">
@@ -33851,7 +33851,7 @@
         <v>101</v>
       </c>
       <c r="M383" s="13">
-        <f>VALUE(L383)</f>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="N383" s="1">
@@ -33927,7 +33927,7 @@
         <v>4568</v>
       </c>
       <c r="M384" s="13">
-        <f>VALUE(L384)</f>
+        <f t="shared" si="5"/>
         <v>4568</v>
       </c>
       <c r="N384" s="1">
@@ -34003,7 +34003,7 @@
         <v>409</v>
       </c>
       <c r="M385" s="13">
-        <f>VALUE(L385)</f>
+        <f t="shared" si="5"/>
         <v>409</v>
       </c>
       <c r="N385" s="1">
@@ -34079,7 +34079,7 @@
         <v>9255</v>
       </c>
       <c r="M386" s="13">
-        <f>VALUE(L386)</f>
+        <f t="shared" ref="M386:M449" si="6">VALUE(L386)</f>
         <v>9255</v>
       </c>
       <c r="N386" s="1">
@@ -34155,7 +34155,7 @@
         <v>15905</v>
       </c>
       <c r="M387" s="13">
-        <f>VALUE(L387)</f>
+        <f t="shared" si="6"/>
         <v>15905</v>
       </c>
       <c r="N387" s="1">
@@ -34231,7 +34231,7 @@
         <v>6019</v>
       </c>
       <c r="M388" s="13">
-        <f>VALUE(L388)</f>
+        <f t="shared" si="6"/>
         <v>6019</v>
       </c>
       <c r="N388" s="1">
@@ -34307,7 +34307,7 @@
         <v>26644</v>
       </c>
       <c r="M389" s="13">
-        <f>VALUE(L389)</f>
+        <f t="shared" si="6"/>
         <v>26644</v>
       </c>
       <c r="N389" s="1">
@@ -34383,7 +34383,7 @@
         <v>3056</v>
       </c>
       <c r="M390" s="13">
-        <f>VALUE(L390)</f>
+        <f t="shared" si="6"/>
         <v>3056</v>
       </c>
       <c r="N390" s="1">
@@ -34459,7 +34459,7 @@
         <v>2871</v>
       </c>
       <c r="M391" s="13">
-        <f>VALUE(L391)</f>
+        <f t="shared" si="6"/>
         <v>2871</v>
       </c>
       <c r="N391" s="1">
@@ -34535,7 +34535,7 @@
         <v>1290</v>
       </c>
       <c r="M392" s="13">
-        <f>VALUE(L392)</f>
+        <f t="shared" si="6"/>
         <v>1290</v>
       </c>
       <c r="N392" s="1">
@@ -34611,7 +34611,7 @@
         <v>12998</v>
       </c>
       <c r="M393" s="13">
-        <f>VALUE(L393)</f>
+        <f t="shared" si="6"/>
         <v>12998</v>
       </c>
       <c r="N393" s="1">
@@ -34687,7 +34687,7 @@
         <v>19024</v>
       </c>
       <c r="M394" s="13">
-        <f>VALUE(L394)</f>
+        <f t="shared" si="6"/>
         <v>19024</v>
       </c>
       <c r="N394" s="1">
@@ -34763,7 +34763,7 @@
         <v>1536</v>
       </c>
       <c r="M395" s="13">
-        <f>VALUE(L395)</f>
+        <f t="shared" si="6"/>
         <v>1536</v>
       </c>
       <c r="N395" s="1">
@@ -34839,7 +34839,7 @@
         <v>869</v>
       </c>
       <c r="M396" s="13">
-        <f>VALUE(L396)</f>
+        <f t="shared" si="6"/>
         <v>869</v>
       </c>
       <c r="N396" s="1">
@@ -34915,7 +34915,7 @@
         <v>2222</v>
       </c>
       <c r="M397" s="13">
-        <f>VALUE(L397)</f>
+        <f t="shared" si="6"/>
         <v>2222</v>
       </c>
       <c r="N397" s="1">
@@ -34991,7 +34991,7 @@
         <v>2220</v>
       </c>
       <c r="M398" s="13">
-        <f>VALUE(L398)</f>
+        <f t="shared" si="6"/>
         <v>2220</v>
       </c>
       <c r="N398" s="1">
@@ -35067,7 +35067,7 @@
         <v>475</v>
       </c>
       <c r="M399" s="13">
-        <f>VALUE(L399)</f>
+        <f t="shared" si="6"/>
         <v>475</v>
       </c>
       <c r="N399" s="1">
@@ -35143,7 +35143,7 @@
         <v>2666</v>
       </c>
       <c r="M400" s="13">
-        <f>VALUE(L400)</f>
+        <f t="shared" si="6"/>
         <v>2666</v>
       </c>
       <c r="N400" s="1">
@@ -35219,7 +35219,7 @@
         <v>6324</v>
       </c>
       <c r="M401" s="13">
-        <f>VALUE(L401)</f>
+        <f t="shared" si="6"/>
         <v>6324</v>
       </c>
       <c r="N401" s="1">
@@ -35295,7 +35295,7 @@
         <v>29414</v>
       </c>
       <c r="M402" s="13">
-        <f>VALUE(L402)</f>
+        <f t="shared" si="6"/>
         <v>29414</v>
       </c>
       <c r="N402" s="1">
@@ -35371,7 +35371,7 @@
         <v>3698</v>
       </c>
       <c r="M403" s="13">
-        <f>VALUE(L403)</f>
+        <f t="shared" si="6"/>
         <v>3698</v>
       </c>
       <c r="N403" s="1">
@@ -35447,7 +35447,7 @@
         <v>14692</v>
       </c>
       <c r="M404" s="13">
-        <f>VALUE(L404)</f>
+        <f t="shared" si="6"/>
         <v>14692</v>
       </c>
       <c r="N404" s="1">
@@ -35523,7 +35523,7 @@
         <v>2682</v>
       </c>
       <c r="M405" s="13">
-        <f>VALUE(L405)</f>
+        <f t="shared" si="6"/>
         <v>2682</v>
       </c>
       <c r="N405" s="1">
@@ -35599,7 +35599,7 @@
         <v>3536</v>
       </c>
       <c r="M406" s="13">
-        <f>VALUE(L406)</f>
+        <f t="shared" si="6"/>
         <v>3536</v>
       </c>
       <c r="N406" s="1">
@@ -35675,7 +35675,7 @@
         <v>6368</v>
       </c>
       <c r="M407" s="13">
-        <f>VALUE(L407)</f>
+        <f t="shared" si="6"/>
         <v>6368</v>
       </c>
       <c r="N407" s="1">
@@ -35751,7 +35751,7 @@
         <v>16628</v>
       </c>
       <c r="M408" s="13">
-        <f>VALUE(L408)</f>
+        <f t="shared" si="6"/>
         <v>16628</v>
       </c>
       <c r="N408" s="1">
@@ -35827,7 +35827,7 @@
         <v>5962</v>
       </c>
       <c r="M409" s="13">
-        <f>VALUE(L409)</f>
+        <f t="shared" si="6"/>
         <v>5962</v>
       </c>
       <c r="N409" s="1">
@@ -35903,7 +35903,7 @@
         <v>14091</v>
       </c>
       <c r="M410" s="13">
-        <f>VALUE(L410)</f>
+        <f t="shared" si="6"/>
         <v>14091</v>
       </c>
       <c r="N410" s="1">
@@ -35979,7 +35979,7 @@
         <v>5343</v>
       </c>
       <c r="M411" s="13">
-        <f>VALUE(L411)</f>
+        <f t="shared" si="6"/>
         <v>5343</v>
       </c>
       <c r="N411" s="1">
@@ -36055,7 +36055,7 @@
         <v>3950</v>
       </c>
       <c r="M412" s="13">
-        <f>VALUE(L412)</f>
+        <f t="shared" si="6"/>
         <v>3950</v>
       </c>
       <c r="N412" s="1">
@@ -36131,7 +36131,7 @@
         <v>5512</v>
       </c>
       <c r="M413" s="13">
-        <f>VALUE(L413)</f>
+        <f t="shared" si="6"/>
         <v>5512</v>
       </c>
       <c r="N413" s="1">
@@ -36207,7 +36207,7 @@
         <v>1853</v>
       </c>
       <c r="M414" s="13">
-        <f>VALUE(L414)</f>
+        <f t="shared" si="6"/>
         <v>1853</v>
       </c>
       <c r="N414" s="1">
@@ -36283,7 +36283,7 @@
         <v>9043</v>
       </c>
       <c r="M415" s="13">
-        <f>VALUE(L415)</f>
+        <f t="shared" si="6"/>
         <v>9043</v>
       </c>
       <c r="N415" s="1">
@@ -36359,7 +36359,7 @@
         <v>6980</v>
       </c>
       <c r="M416" s="13">
-        <f>VALUE(L416)</f>
+        <f t="shared" si="6"/>
         <v>6980</v>
       </c>
       <c r="N416" s="1">
@@ -36435,7 +36435,7 @@
         <v>2818</v>
       </c>
       <c r="M417" s="13">
-        <f>VALUE(L417)</f>
+        <f t="shared" si="6"/>
         <v>2818</v>
       </c>
       <c r="N417" s="1">
@@ -36511,7 +36511,7 @@
         <v>2198</v>
       </c>
       <c r="M418" s="13">
-        <f>VALUE(L418)</f>
+        <f t="shared" si="6"/>
         <v>2198</v>
       </c>
       <c r="N418" s="1">
@@ -36587,7 +36587,7 @@
         <v>6301</v>
       </c>
       <c r="M419" s="13">
-        <f>VALUE(L419)</f>
+        <f t="shared" si="6"/>
         <v>6301</v>
       </c>
       <c r="N419" s="1">
@@ -36663,7 +36663,7 @@
         <v>9346</v>
       </c>
       <c r="M420" s="13">
-        <f>VALUE(L420)</f>
+        <f t="shared" si="6"/>
         <v>9346</v>
       </c>
       <c r="N420" s="1">
@@ -36739,7 +36739,7 @@
         <v>3788</v>
       </c>
       <c r="M421" s="13">
-        <f>VALUE(L421)</f>
+        <f t="shared" si="6"/>
         <v>3788</v>
       </c>
       <c r="N421" s="1">
@@ -36815,7 +36815,7 @@
         <v>5341</v>
       </c>
       <c r="M422" s="13">
-        <f>VALUE(L422)</f>
+        <f t="shared" si="6"/>
         <v>5341</v>
       </c>
       <c r="N422" s="1">
@@ -36891,7 +36891,7 @@
         <v>8929</v>
       </c>
       <c r="M423" s="13">
-        <f>VALUE(L423)</f>
+        <f t="shared" si="6"/>
         <v>8929</v>
       </c>
       <c r="N423" s="1">
@@ -36967,7 +36967,7 @@
         <v>940</v>
       </c>
       <c r="M424" s="13">
-        <f>VALUE(L424)</f>
+        <f t="shared" si="6"/>
         <v>940</v>
       </c>
       <c r="N424" s="1">
@@ -37043,7 +37043,7 @@
         <v>2453</v>
       </c>
       <c r="M425" s="13">
-        <f>VALUE(L425)</f>
+        <f t="shared" si="6"/>
         <v>2453</v>
       </c>
       <c r="N425" s="1">
@@ -37119,7 +37119,7 @@
         <v>1549</v>
       </c>
       <c r="M426" s="13">
-        <f>VALUE(L426)</f>
+        <f t="shared" si="6"/>
         <v>1549</v>
       </c>
       <c r="N426" s="1">
@@ -37195,7 +37195,7 @@
         <v>7597</v>
       </c>
       <c r="M427" s="13">
-        <f>VALUE(L427)</f>
+        <f t="shared" si="6"/>
         <v>7597</v>
       </c>
       <c r="N427" s="1">
@@ -37271,7 +37271,7 @@
         <v>2074</v>
       </c>
       <c r="M428" s="13">
-        <f>VALUE(L428)</f>
+        <f t="shared" si="6"/>
         <v>2074</v>
       </c>
       <c r="N428" s="1">
@@ -37347,7 +37347,7 @@
         <v>2844</v>
       </c>
       <c r="M429" s="13">
-        <f>VALUE(L429)</f>
+        <f t="shared" si="6"/>
         <v>2844</v>
       </c>
       <c r="N429" s="1">
@@ -37423,7 +37423,7 @@
         <v>1089</v>
       </c>
       <c r="M430" s="13">
-        <f>VALUE(L430)</f>
+        <f t="shared" si="6"/>
         <v>1089</v>
       </c>
       <c r="N430" s="1">
@@ -37499,7 +37499,7 @@
         <v>1631</v>
       </c>
       <c r="M431" s="13">
-        <f>VALUE(L431)</f>
+        <f t="shared" si="6"/>
         <v>1631</v>
       </c>
       <c r="N431" s="1">
@@ -37575,7 +37575,7 @@
         <v>5147</v>
       </c>
       <c r="M432" s="13">
-        <f>VALUE(L432)</f>
+        <f t="shared" si="6"/>
         <v>5147</v>
       </c>
       <c r="N432" s="1">
@@ -37651,7 +37651,7 @@
         <v>282</v>
       </c>
       <c r="M433" s="13">
-        <f>VALUE(L433)</f>
+        <f t="shared" si="6"/>
         <v>282</v>
       </c>
       <c r="N433" s="1">
@@ -37727,7 +37727,7 @@
         <v>4371</v>
       </c>
       <c r="M434" s="13">
-        <f>VALUE(L434)</f>
+        <f t="shared" si="6"/>
         <v>4371</v>
       </c>
       <c r="N434" s="1">
@@ -37803,7 +37803,7 @@
         <v>46758</v>
       </c>
       <c r="M435" s="13">
-        <f>VALUE(L435)</f>
+        <f t="shared" si="6"/>
         <v>46758</v>
       </c>
       <c r="N435" s="1">
@@ -37879,7 +37879,7 @@
         <v>980</v>
       </c>
       <c r="M436" s="13">
-        <f>VALUE(L436)</f>
+        <f t="shared" si="6"/>
         <v>980</v>
       </c>
       <c r="N436" s="1">
@@ -37955,7 +37955,7 @@
         <v>7730</v>
       </c>
       <c r="M437" s="13">
-        <f>VALUE(L437)</f>
+        <f t="shared" si="6"/>
         <v>7730</v>
       </c>
       <c r="N437" s="1">
@@ -38031,7 +38031,7 @@
         <v>1467</v>
       </c>
       <c r="M438" s="13">
-        <f>VALUE(L438)</f>
+        <f t="shared" si="6"/>
         <v>1467</v>
       </c>
       <c r="N438" s="1">
@@ -38107,7 +38107,7 @@
         <v>3306</v>
       </c>
       <c r="M439" s="13">
-        <f>VALUE(L439)</f>
+        <f t="shared" si="6"/>
         <v>3306</v>
       </c>
       <c r="N439" s="1">
@@ -38183,7 +38183,7 @@
         <v>10897</v>
       </c>
       <c r="M440" s="13">
-        <f>VALUE(L440)</f>
+        <f t="shared" si="6"/>
         <v>10897</v>
       </c>
       <c r="N440" s="1">
@@ -38259,7 +38259,7 @@
         <v>24515</v>
       </c>
       <c r="M441" s="13">
-        <f>VALUE(L441)</f>
+        <f t="shared" si="6"/>
         <v>24515</v>
       </c>
       <c r="N441" s="1">
@@ -38335,7 +38335,7 @@
         <v>3533</v>
       </c>
       <c r="M442" s="13">
-        <f>VALUE(L442)</f>
+        <f t="shared" si="6"/>
         <v>3533</v>
       </c>
       <c r="N442" s="1">
@@ -38411,7 +38411,7 @@
         <v>5886</v>
       </c>
       <c r="M443" s="13">
-        <f>VALUE(L443)</f>
+        <f t="shared" si="6"/>
         <v>5886</v>
       </c>
       <c r="N443" s="1">
@@ -38487,7 +38487,7 @@
         <v>10463</v>
       </c>
       <c r="M444" s="13">
-        <f>VALUE(L444)</f>
+        <f t="shared" si="6"/>
         <v>10463</v>
       </c>
       <c r="N444" s="1">
@@ -38563,7 +38563,7 @@
         <v>3077</v>
       </c>
       <c r="M445" s="13">
-        <f>VALUE(L445)</f>
+        <f t="shared" si="6"/>
         <v>3077</v>
       </c>
       <c r="N445" s="1">
@@ -38639,7 +38639,7 @@
         <v>12233</v>
       </c>
       <c r="M446" s="13">
-        <f>VALUE(L446)</f>
+        <f t="shared" si="6"/>
         <v>12233</v>
       </c>
       <c r="N446" s="1">
@@ -38715,7 +38715,7 @@
         <v>19005</v>
       </c>
       <c r="M447" s="13">
-        <f>VALUE(L447)</f>
+        <f t="shared" si="6"/>
         <v>19005</v>
       </c>
       <c r="N447" s="1">
@@ -38791,7 +38791,7 @@
         <v>8820</v>
       </c>
       <c r="M448" s="13">
-        <f>VALUE(L448)</f>
+        <f t="shared" si="6"/>
         <v>8820</v>
       </c>
       <c r="N448" s="1">
@@ -38867,7 +38867,7 @@
         <v>3250</v>
       </c>
       <c r="M449" s="13">
-        <f>VALUE(L449)</f>
+        <f t="shared" si="6"/>
         <v>3250</v>
       </c>
       <c r="N449" s="1">
@@ -38943,7 +38943,7 @@
         <v>6472</v>
       </c>
       <c r="M450" s="13">
-        <f>VALUE(L450)</f>
+        <f t="shared" ref="M450:M513" si="7">VALUE(L450)</f>
         <v>6472</v>
       </c>
       <c r="N450" s="1">
@@ -39019,7 +39019,7 @@
         <v>887</v>
       </c>
       <c r="M451" s="13">
-        <f>VALUE(L451)</f>
+        <f t="shared" si="7"/>
         <v>887</v>
       </c>
       <c r="N451" s="1">
@@ -39095,7 +39095,7 @@
         <v>15353</v>
       </c>
       <c r="M452" s="13">
-        <f>VALUE(L452)</f>
+        <f t="shared" si="7"/>
         <v>15353</v>
       </c>
       <c r="N452" s="1">
@@ -39171,7 +39171,7 @@
         <v>51709</v>
       </c>
       <c r="M453" s="13">
-        <f>VALUE(L453)</f>
+        <f t="shared" si="7"/>
         <v>51709</v>
       </c>
       <c r="N453" s="1">
@@ -39247,7 +39247,7 @@
         <v>35943</v>
       </c>
       <c r="M454" s="13">
-        <f>VALUE(L454)</f>
+        <f t="shared" si="7"/>
         <v>35943</v>
       </c>
       <c r="N454" s="1">
@@ -39323,7 +39323,7 @@
         <v>4267</v>
       </c>
       <c r="M455" s="13">
-        <f>VALUE(L455)</f>
+        <f t="shared" si="7"/>
         <v>4267</v>
       </c>
       <c r="N455" s="1">
@@ -39399,7 +39399,7 @@
         <v>22999</v>
       </c>
       <c r="M456" s="13">
-        <f>VALUE(L456)</f>
+        <f t="shared" si="7"/>
         <v>22999</v>
       </c>
       <c r="N456" s="1">
@@ -39475,7 +39475,7 @@
         <v>31457</v>
       </c>
       <c r="M457" s="13">
-        <f>VALUE(L457)</f>
+        <f t="shared" si="7"/>
         <v>31457</v>
       </c>
       <c r="N457" s="1">
@@ -39551,7 +39551,7 @@
         <v>16403</v>
       </c>
       <c r="M458" s="13">
-        <f>VALUE(L458)</f>
+        <f t="shared" si="7"/>
         <v>16403</v>
       </c>
       <c r="N458" s="1">
@@ -39627,7 +39627,7 @@
         <v>17395</v>
       </c>
       <c r="M459" s="13">
-        <f>VALUE(L459)</f>
+        <f t="shared" si="7"/>
         <v>17395</v>
       </c>
       <c r="N459" s="1">
@@ -39703,7 +39703,7 @@
         <v>28735</v>
       </c>
       <c r="M460" s="13">
-        <f>VALUE(L460)</f>
+        <f t="shared" si="7"/>
         <v>28735</v>
       </c>
       <c r="N460" s="1">
@@ -39779,7 +39779,7 @@
         <v>6353</v>
       </c>
       <c r="M461" s="13">
-        <f>VALUE(L461)</f>
+        <f t="shared" si="7"/>
         <v>6353</v>
       </c>
       <c r="N461" s="1">
@@ -39855,7 +39855,7 @@
         <v>4332</v>
       </c>
       <c r="M462" s="13">
-        <f>VALUE(L462)</f>
+        <f t="shared" si="7"/>
         <v>4332</v>
       </c>
       <c r="N462" s="1">
@@ -39931,7 +39931,7 @@
         <v>38031</v>
       </c>
       <c r="M463" s="13">
-        <f>VALUE(L463)</f>
+        <f t="shared" si="7"/>
         <v>38031</v>
       </c>
       <c r="N463" s="1">
@@ -40007,7 +40007,7 @@
         <v>9437</v>
       </c>
       <c r="M464" s="13">
-        <f>VALUE(L464)</f>
+        <f t="shared" si="7"/>
         <v>9437</v>
       </c>
       <c r="N464" s="1">
@@ -40083,7 +40083,7 @@
         <v>37713</v>
       </c>
       <c r="M465" s="13">
-        <f>VALUE(L465)</f>
+        <f t="shared" si="7"/>
         <v>37713</v>
       </c>
       <c r="N465" s="1">
@@ -40159,7 +40159,7 @@
         <v>40355</v>
       </c>
       <c r="M466" s="13">
-        <f>VALUE(L466)</f>
+        <f t="shared" si="7"/>
         <v>40355</v>
       </c>
       <c r="N466" s="1">
@@ -40235,7 +40235,7 @@
         <v>48103</v>
       </c>
       <c r="M467" s="13">
-        <f>VALUE(L467)</f>
+        <f t="shared" si="7"/>
         <v>48103</v>
       </c>
       <c r="N467" s="1">
@@ -40311,7 +40311,7 @@
         <v>24477</v>
       </c>
       <c r="M468" s="13">
-        <f>VALUE(L468)</f>
+        <f t="shared" si="7"/>
         <v>24477</v>
       </c>
       <c r="N468" s="1">
@@ -40387,7 +40387,7 @@
         <v>5875</v>
       </c>
       <c r="M469" s="13">
-        <f>VALUE(L469)</f>
+        <f t="shared" si="7"/>
         <v>5875</v>
       </c>
       <c r="N469" s="1">
@@ -40463,7 +40463,7 @@
         <v>55717</v>
       </c>
       <c r="M470" s="13">
-        <f>VALUE(L470)</f>
+        <f t="shared" si="7"/>
         <v>55717</v>
       </c>
       <c r="N470" s="1">
@@ -40539,7 +40539,7 @@
         <v>18485</v>
       </c>
       <c r="M471" s="13">
-        <f>VALUE(L471)</f>
+        <f t="shared" si="7"/>
         <v>18485</v>
       </c>
       <c r="N471" s="1">
@@ -40615,7 +40615,7 @@
         <v>23096</v>
       </c>
       <c r="M472" s="13">
-        <f>VALUE(L472)</f>
+        <f t="shared" si="7"/>
         <v>23096</v>
       </c>
       <c r="N472" s="1">
@@ -40691,7 +40691,7 @@
         <v>9830</v>
       </c>
       <c r="M473" s="13">
-        <f>VALUE(L473)</f>
+        <f t="shared" si="7"/>
         <v>9830</v>
       </c>
       <c r="N473" s="1">
@@ -40767,7 +40767,7 @@
         <v>5786</v>
       </c>
       <c r="M474" s="13">
-        <f>VALUE(L474)</f>
+        <f t="shared" si="7"/>
         <v>5786</v>
       </c>
       <c r="N474" s="1">
@@ -40843,7 +40843,7 @@
         <v>228</v>
       </c>
       <c r="M475" s="13">
-        <f>VALUE(L475)</f>
+        <f t="shared" si="7"/>
         <v>228</v>
       </c>
       <c r="N475" s="1">
@@ -40919,7 +40919,7 @@
         <v>157</v>
       </c>
       <c r="M476" s="13">
-        <f>VALUE(L476)</f>
+        <f t="shared" si="7"/>
         <v>157</v>
       </c>
       <c r="N476" s="1">
@@ -40995,7 +40995,7 @@
         <v>26351</v>
       </c>
       <c r="M477" s="13">
-        <f>VALUE(L477)</f>
+        <f t="shared" si="7"/>
         <v>26351</v>
       </c>
       <c r="N477" s="1">
@@ -41071,7 +41071,7 @@
         <v>12152</v>
       </c>
       <c r="M478" s="13">
-        <f>VALUE(L478)</f>
+        <f t="shared" si="7"/>
         <v>12152</v>
       </c>
       <c r="N478" s="1">
@@ -41147,7 +41147,7 @@
         <v>26011</v>
       </c>
       <c r="M479" s="13">
-        <f>VALUE(L479)</f>
+        <f t="shared" si="7"/>
         <v>26011</v>
       </c>
       <c r="N479" s="1">
@@ -41223,7 +41223,7 @@
         <v>13733</v>
       </c>
       <c r="M480" s="13">
-        <f>VALUE(L480)</f>
+        <f t="shared" si="7"/>
         <v>13733</v>
       </c>
       <c r="N480" s="1">
@@ -41299,7 +41299,7 @@
         <v>106424</v>
       </c>
       <c r="M481" s="13">
-        <f>VALUE(L481)</f>
+        <f t="shared" si="7"/>
         <v>106424</v>
       </c>
       <c r="N481" s="1">
@@ -41375,7 +41375,7 @@
         <v>31155</v>
       </c>
       <c r="M482" s="13">
-        <f>VALUE(L482)</f>
+        <f t="shared" si="7"/>
         <v>31155</v>
       </c>
       <c r="N482" s="1">
@@ -41451,7 +41451,7 @@
         <v>15672</v>
       </c>
       <c r="M483" s="13">
-        <f>VALUE(L483)</f>
+        <f t="shared" si="7"/>
         <v>15672</v>
       </c>
       <c r="N483" s="1">
@@ -41527,7 +41527,7 @@
         <v>36215</v>
       </c>
       <c r="M484" s="13">
-        <f>VALUE(L484)</f>
+        <f t="shared" si="7"/>
         <v>36215</v>
       </c>
       <c r="N484" s="1">
@@ -41603,7 +41603,7 @@
         <v>7767</v>
       </c>
       <c r="M485" s="13">
-        <f>VALUE(L485)</f>
+        <f t="shared" si="7"/>
         <v>7767</v>
       </c>
       <c r="N485" s="1">
@@ -41679,7 +41679,7 @@
         <v>6660</v>
       </c>
       <c r="M486" s="13">
-        <f>VALUE(L486)</f>
+        <f t="shared" si="7"/>
         <v>6660</v>
       </c>
       <c r="N486" s="1">
@@ -41755,7 +41755,7 @@
         <v>25905</v>
       </c>
       <c r="M487" s="13">
-        <f>VALUE(L487)</f>
+        <f t="shared" si="7"/>
         <v>25905</v>
       </c>
       <c r="N487" s="1">
@@ -41831,7 +41831,7 @@
         <v>6903</v>
       </c>
       <c r="M488" s="13">
-        <f>VALUE(L488)</f>
+        <f t="shared" si="7"/>
         <v>6903</v>
       </c>
       <c r="N488" s="1">
@@ -41907,7 +41907,7 @@
         <v>8692</v>
       </c>
       <c r="M489" s="13">
-        <f>VALUE(L489)</f>
+        <f t="shared" si="7"/>
         <v>8692</v>
       </c>
       <c r="N489" s="1">
@@ -41983,7 +41983,7 @@
         <v>6099</v>
       </c>
       <c r="M490" s="13">
-        <f>VALUE(L490)</f>
+        <f t="shared" si="7"/>
         <v>6099</v>
       </c>
       <c r="N490" s="1">
@@ -42059,7 +42059,7 @@
         <v>36737</v>
       </c>
       <c r="M491" s="13">
-        <f>VALUE(L491)</f>
+        <f t="shared" si="7"/>
         <v>36737</v>
       </c>
       <c r="N491" s="1">
@@ -42135,7 +42135,7 @@
         <v>13797</v>
       </c>
       <c r="M492" s="13">
-        <f>VALUE(L492)</f>
+        <f t="shared" si="7"/>
         <v>13797</v>
       </c>
       <c r="N492" s="1">
@@ -42211,7 +42211,7 @@
         <v>66563</v>
       </c>
       <c r="M493" s="13">
-        <f>VALUE(L493)</f>
+        <f t="shared" si="7"/>
         <v>66563</v>
       </c>
       <c r="N493" s="1">
@@ -42287,7 +42287,7 @@
         <v>13421</v>
       </c>
       <c r="M494" s="13">
-        <f>VALUE(L494)</f>
+        <f t="shared" si="7"/>
         <v>13421</v>
       </c>
       <c r="N494" s="1">
@@ -42363,7 +42363,7 @@
         <v>40353</v>
       </c>
       <c r="M495" s="13">
-        <f>VALUE(L495)</f>
+        <f t="shared" si="7"/>
         <v>40353</v>
       </c>
       <c r="N495" s="1">
@@ -42439,7 +42439,7 @@
         <v>8725</v>
       </c>
       <c r="M496" s="13">
-        <f>VALUE(L496)</f>
+        <f t="shared" si="7"/>
         <v>8725</v>
       </c>
       <c r="N496" s="1">
@@ -42515,7 +42515,7 @@
         <v>13232</v>
       </c>
       <c r="M497" s="13">
-        <f>VALUE(L497)</f>
+        <f t="shared" si="7"/>
         <v>13232</v>
       </c>
       <c r="N497" s="1">
@@ -42591,7 +42591,7 @@
         <v>36296</v>
       </c>
       <c r="M498" s="13">
-        <f>VALUE(L498)</f>
+        <f t="shared" si="7"/>
         <v>36296</v>
       </c>
       <c r="N498" s="1">
@@ -42667,7 +42667,7 @@
         <v>30755</v>
       </c>
       <c r="M499" s="13">
-        <f>VALUE(L499)</f>
+        <f t="shared" si="7"/>
         <v>30755</v>
       </c>
       <c r="N499" s="1">
@@ -42743,7 +42743,7 @@
         <v>12616</v>
       </c>
       <c r="M500" s="13">
-        <f>VALUE(L500)</f>
+        <f t="shared" si="7"/>
         <v>12616</v>
       </c>
       <c r="N500" s="1">
@@ -42819,7 +42819,7 @@
         <v>3419</v>
       </c>
       <c r="M501" s="13">
-        <f>VALUE(L501)</f>
+        <f t="shared" si="7"/>
         <v>3419</v>
       </c>
       <c r="N501" s="1">
@@ -42895,7 +42895,7 @@
         <v>443</v>
       </c>
       <c r="M502" s="13">
-        <f>VALUE(L502)</f>
+        <f t="shared" si="7"/>
         <v>443</v>
       </c>
       <c r="N502" s="1">
@@ -42971,7 +42971,7 @@
         <v>380</v>
       </c>
       <c r="M503" s="13">
-        <f>VALUE(L503)</f>
+        <f t="shared" si="7"/>
         <v>380</v>
       </c>
       <c r="N503" s="1">
@@ -43047,7 +43047,7 @@
         <v>5004</v>
       </c>
       <c r="M504" s="13">
-        <f>VALUE(L504)</f>
+        <f t="shared" si="7"/>
         <v>5004</v>
       </c>
       <c r="N504" s="1">
@@ -43123,7 +43123,7 @@
         <v>4711</v>
       </c>
       <c r="M505" s="13">
-        <f>VALUE(L505)</f>
+        <f t="shared" si="7"/>
         <v>4711</v>
       </c>
       <c r="N505" s="1">
@@ -43199,7 +43199,7 @@
         <v>18266</v>
       </c>
       <c r="M506" s="13">
-        <f>VALUE(L506)</f>
+        <f t="shared" si="7"/>
         <v>18266</v>
       </c>
       <c r="N506" s="1">
@@ -43275,7 +43275,7 @@
         <v>12128</v>
       </c>
       <c r="M507" s="13">
-        <f>VALUE(L507)</f>
+        <f t="shared" si="7"/>
         <v>12128</v>
       </c>
       <c r="N507" s="1">
@@ -43351,7 +43351,7 @@
         <v>3340</v>
       </c>
       <c r="M508" s="13">
-        <f>VALUE(L508)</f>
+        <f t="shared" si="7"/>
         <v>3340</v>
       </c>
       <c r="N508" s="1">
@@ -43427,7 +43427,7 @@
         <v>9415</v>
       </c>
       <c r="M509" s="13">
-        <f>VALUE(L509)</f>
+        <f t="shared" si="7"/>
         <v>9415</v>
       </c>
       <c r="N509" s="1">
@@ -43503,7 +43503,7 @@
         <v>11680</v>
       </c>
       <c r="M510" s="13">
-        <f>VALUE(L510)</f>
+        <f t="shared" si="7"/>
         <v>11680</v>
       </c>
       <c r="N510" s="1">
@@ -43579,7 +43579,7 @@
         <v>1408</v>
       </c>
       <c r="M511" s="13">
-        <f>VALUE(L511)</f>
+        <f t="shared" si="7"/>
         <v>1408</v>
       </c>
       <c r="N511" s="1">
@@ -43655,7 +43655,7 @@
         <v>16009</v>
       </c>
       <c r="M512" s="13">
-        <f>VALUE(L512)</f>
+        <f t="shared" si="7"/>
         <v>16009</v>
       </c>
       <c r="N512" s="1">
@@ -43731,7 +43731,7 @@
         <v>2066</v>
       </c>
       <c r="M513" s="13">
-        <f>VALUE(L513)</f>
+        <f t="shared" si="7"/>
         <v>2066</v>
       </c>
       <c r="N513" s="1">
@@ -43807,7 +43807,7 @@
         <v>16</v>
       </c>
       <c r="M514" s="13">
-        <f>VALUE(L514)</f>
+        <f t="shared" ref="M514:M577" si="8">VALUE(L514)</f>
         <v>16</v>
       </c>
       <c r="N514" s="1">
@@ -43883,7 +43883,7 @@
         <v>0</v>
       </c>
       <c r="M515" s="13">
-        <f>VALUE(L515)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N515" s="1">
@@ -43959,7 +43959,7 @@
         <v>51</v>
       </c>
       <c r="M516" s="13">
-        <f>VALUE(L516)</f>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
       <c r="N516" s="1">
@@ -44035,7 +44035,7 @@
         <v>11</v>
       </c>
       <c r="M517" s="13">
-        <f>VALUE(L517)</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="N517" s="1">
@@ -44111,7 +44111,7 @@
         <v>7</v>
       </c>
       <c r="M518" s="13">
-        <f>VALUE(L518)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="N518" s="1">
@@ -44187,7 +44187,7 @@
         <v>11885</v>
       </c>
       <c r="M519" s="13">
-        <f>VALUE(L519)</f>
+        <f t="shared" si="8"/>
         <v>11885</v>
       </c>
       <c r="N519" s="1">
@@ -44263,7 +44263,7 @@
         <v>37</v>
       </c>
       <c r="M520" s="13">
-        <f>VALUE(L520)</f>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="N520" s="1">
@@ -44339,7 +44339,7 @@
         <v>25409</v>
       </c>
       <c r="M521" s="13">
-        <f>VALUE(L521)</f>
+        <f t="shared" si="8"/>
         <v>25409</v>
       </c>
       <c r="N521" s="1">
@@ -44415,7 +44415,7 @@
         <v>13803</v>
       </c>
       <c r="M522" s="13">
-        <f>VALUE(L522)</f>
+        <f t="shared" si="8"/>
         <v>13803</v>
       </c>
       <c r="N522" s="1">
@@ -44491,7 +44491,7 @@
         <v>67903</v>
       </c>
       <c r="M523" s="13">
-        <f>VALUE(L523)</f>
+        <f t="shared" si="8"/>
         <v>67903</v>
       </c>
       <c r="N523" s="1">
@@ -44567,7 +44567,7 @@
         <v>1320</v>
       </c>
       <c r="M524" s="13">
-        <f>VALUE(L524)</f>
+        <f t="shared" si="8"/>
         <v>1320</v>
       </c>
       <c r="N524" s="1">
@@ -44643,7 +44643,7 @@
         <v>469</v>
       </c>
       <c r="M525" s="13">
-        <f>VALUE(L525)</f>
+        <f t="shared" si="8"/>
         <v>469</v>
       </c>
       <c r="N525" s="1">
@@ -44719,7 +44719,7 @@
         <v>669</v>
       </c>
       <c r="M526" s="13">
-        <f>VALUE(L526)</f>
+        <f t="shared" si="8"/>
         <v>669</v>
       </c>
       <c r="N526" s="1">
@@ -44795,7 +44795,7 @@
         <v>12226</v>
       </c>
       <c r="M527" s="13">
-        <f>VALUE(L527)</f>
+        <f t="shared" si="8"/>
         <v>12226</v>
       </c>
       <c r="N527" s="1">
@@ -44871,7 +44871,7 @@
         <v>250</v>
       </c>
       <c r="M528" s="13">
-        <f>VALUE(L528)</f>
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
       <c r="N528" s="1">
@@ -44947,7 +44947,7 @@
         <v>642</v>
       </c>
       <c r="M529" s="13">
-        <f>VALUE(L529)</f>
+        <f t="shared" si="8"/>
         <v>642</v>
       </c>
       <c r="N529" s="1">
@@ -45023,7 +45023,7 @@
         <v>1826</v>
       </c>
       <c r="M530" s="13">
-        <f>VALUE(L530)</f>
+        <f t="shared" si="8"/>
         <v>1826</v>
       </c>
       <c r="N530" s="1">
@@ -45099,7 +45099,7 @@
         <v>244</v>
       </c>
       <c r="M531" s="13">
-        <f>VALUE(L531)</f>
+        <f t="shared" si="8"/>
         <v>244</v>
       </c>
       <c r="N531" s="1">
@@ -45175,7 +45175,7 @@
         <v>311</v>
       </c>
       <c r="M532" s="13">
-        <f>VALUE(L532)</f>
+        <f t="shared" si="8"/>
         <v>311</v>
       </c>
       <c r="N532" s="1">
@@ -45251,7 +45251,7 @@
         <v>1080</v>
       </c>
       <c r="M533" s="13">
-        <f>VALUE(L533)</f>
+        <f t="shared" si="8"/>
         <v>1080</v>
       </c>
       <c r="N533" s="1">
@@ -45327,7 +45327,7 @@
         <v>117</v>
       </c>
       <c r="M534" s="13">
-        <f>VALUE(L534)</f>
+        <f t="shared" si="8"/>
         <v>117</v>
       </c>
       <c r="N534" s="1">
@@ -45403,7 +45403,7 @@
         <v>60</v>
       </c>
       <c r="M535" s="13">
-        <f>VALUE(L535)</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="N535" s="1">
@@ -45479,7 +45479,7 @@
         <v>655</v>
       </c>
       <c r="M536" s="13">
-        <f>VALUE(L536)</f>
+        <f t="shared" si="8"/>
         <v>655</v>
       </c>
       <c r="N536" s="1">
@@ -45555,7 +45555,7 @@
         <v>785</v>
       </c>
       <c r="M537" s="13">
-        <f>VALUE(L537)</f>
+        <f t="shared" si="8"/>
         <v>785</v>
       </c>
       <c r="N537" s="1">
@@ -45631,7 +45631,7 @@
         <v>5</v>
       </c>
       <c r="M538" s="13">
-        <f>VALUE(L538)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="N538" s="1">
@@ -45707,7 +45707,7 @@
         <v>207</v>
       </c>
       <c r="M539" s="13">
-        <f>VALUE(L539)</f>
+        <f t="shared" si="8"/>
         <v>207</v>
       </c>
       <c r="N539" s="1">
@@ -45783,7 +45783,7 @@
         <v>120</v>
       </c>
       <c r="M540" s="13">
-        <f>VALUE(L540)</f>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="N540" s="1">
@@ -45859,7 +45859,7 @@
         <v>662</v>
       </c>
       <c r="M541" s="13">
-        <f>VALUE(L541)</f>
+        <f t="shared" si="8"/>
         <v>662</v>
       </c>
       <c r="N541" s="1">
@@ -45935,7 +45935,7 @@
         <v>99</v>
       </c>
       <c r="M542" s="13">
-        <f>VALUE(L542)</f>
+        <f t="shared" si="8"/>
         <v>99</v>
       </c>
       <c r="N542" s="1">
@@ -46011,7 +46011,7 @@
         <v>225</v>
       </c>
       <c r="M543" s="13">
-        <f>VALUE(L543)</f>
+        <f t="shared" si="8"/>
         <v>225</v>
       </c>
       <c r="N543" s="1">
@@ -46087,7 +46087,7 @@
         <v>102</v>
       </c>
       <c r="M544" s="13">
-        <f>VALUE(L544)</f>
+        <f t="shared" si="8"/>
         <v>102</v>
       </c>
       <c r="N544" s="1">
@@ -46163,7 +46163,7 @@
         <v>340</v>
       </c>
       <c r="M545" s="13">
-        <f>VALUE(L545)</f>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="N545" s="1">
@@ -46239,7 +46239,7 @@
         <v>30</v>
       </c>
       <c r="M546" s="13">
-        <f>VALUE(L546)</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="N546" s="1">
@@ -46315,7 +46315,7 @@
         <v>4280</v>
       </c>
       <c r="M547" s="13">
-        <f>VALUE(L547)</f>
+        <f t="shared" si="8"/>
         <v>4280</v>
       </c>
       <c r="N547" s="1">
@@ -46391,7 +46391,7 @@
         <v>9125</v>
       </c>
       <c r="M548" s="13">
-        <f>VALUE(L548)</f>
+        <f t="shared" si="8"/>
         <v>9125</v>
       </c>
       <c r="N548" s="1">
@@ -46467,7 +46467,7 @@
         <v>424</v>
       </c>
       <c r="M549" s="13">
-        <f>VALUE(L549)</f>
+        <f t="shared" si="8"/>
         <v>424</v>
       </c>
       <c r="N549" s="1">
@@ -46543,7 +46543,7 @@
         <v>25626</v>
       </c>
       <c r="M550" s="13">
-        <f>VALUE(L550)</f>
+        <f t="shared" si="8"/>
         <v>25626</v>
       </c>
       <c r="N550" s="1">
@@ -46619,7 +46619,7 @@
         <v>39362</v>
       </c>
       <c r="M551" s="13">
-        <f>VALUE(L551)</f>
+        <f t="shared" si="8"/>
         <v>39362</v>
       </c>
       <c r="N551" s="1">
@@ -46695,7 +46695,7 @@
         <v>24706</v>
       </c>
       <c r="M552" s="13">
-        <f>VALUE(L552)</f>
+        <f t="shared" si="8"/>
         <v>24706</v>
       </c>
       <c r="N552" s="1">
@@ -46771,7 +46771,7 @@
         <v>24410</v>
       </c>
       <c r="M553" s="13">
-        <f>VALUE(L553)</f>
+        <f t="shared" si="8"/>
         <v>24410</v>
       </c>
       <c r="N553" s="1">
@@ -46847,7 +46847,7 @@
         <v>73623</v>
       </c>
       <c r="M554" s="13">
-        <f>VALUE(L554)</f>
+        <f t="shared" si="8"/>
         <v>73623</v>
       </c>
       <c r="N554" s="1">
@@ -46923,7 +46923,7 @@
         <v>712</v>
       </c>
       <c r="M555" s="13">
-        <f>VALUE(L555)</f>
+        <f t="shared" si="8"/>
         <v>712</v>
       </c>
       <c r="N555" s="1">
@@ -46999,7 +46999,7 @@
         <v>4848</v>
       </c>
       <c r="M556" s="13">
-        <f>VALUE(L556)</f>
+        <f t="shared" si="8"/>
         <v>4848</v>
       </c>
       <c r="N556" s="1">
@@ -47075,7 +47075,7 @@
         <v>51615</v>
       </c>
       <c r="M557" s="13">
-        <f>VALUE(L557)</f>
+        <f t="shared" si="8"/>
         <v>51615</v>
       </c>
       <c r="N557" s="1">
@@ -47151,7 +47151,7 @@
         <v>21251</v>
       </c>
       <c r="M558" s="13">
-        <f>VALUE(L558)</f>
+        <f t="shared" si="8"/>
         <v>21251</v>
       </c>
       <c r="N558" s="1">
@@ -47227,7 +47227,7 @@
         <v>50110</v>
       </c>
       <c r="M559" s="13">
-        <f>VALUE(L559)</f>
+        <f t="shared" si="8"/>
         <v>50110</v>
       </c>
       <c r="N559" s="1">
@@ -47303,7 +47303,7 @@
         <v>16963</v>
       </c>
       <c r="M560" s="13">
-        <f>VALUE(L560)</f>
+        <f t="shared" si="8"/>
         <v>16963</v>
       </c>
       <c r="N560" s="1">
@@ -47379,7 +47379,7 @@
         <v>30053</v>
       </c>
       <c r="M561" s="13">
-        <f>VALUE(L561)</f>
+        <f t="shared" si="8"/>
         <v>30053</v>
       </c>
       <c r="N561" s="1">
@@ -47455,7 +47455,7 @@
         <v>24502</v>
       </c>
       <c r="M562" s="13">
-        <f>VALUE(L562)</f>
+        <f t="shared" si="8"/>
         <v>24502</v>
       </c>
       <c r="N562" s="1">
@@ -47531,7 +47531,7 @@
         <v>16262</v>
       </c>
       <c r="M563" s="13">
-        <f>VALUE(L563)</f>
+        <f t="shared" si="8"/>
         <v>16262</v>
       </c>
       <c r="N563" s="1">
@@ -47607,7 +47607,7 @@
         <v>40090</v>
       </c>
       <c r="M564" s="13">
-        <f>VALUE(L564)</f>
+        <f t="shared" si="8"/>
         <v>40090</v>
       </c>
       <c r="N564" s="1">
@@ -47683,7 +47683,7 @@
         <v>38924</v>
       </c>
       <c r="M565" s="13">
-        <f>VALUE(L565)</f>
+        <f t="shared" si="8"/>
         <v>38924</v>
       </c>
       <c r="N565" s="1">
@@ -47759,7 +47759,7 @@
         <v>21390</v>
       </c>
       <c r="M566" s="13">
-        <f>VALUE(L566)</f>
+        <f t="shared" si="8"/>
         <v>21390</v>
       </c>
       <c r="N566" s="1">
@@ -47835,7 +47835,7 @@
         <v>25849</v>
       </c>
       <c r="M567" s="13">
-        <f>VALUE(L567)</f>
+        <f t="shared" si="8"/>
         <v>25849</v>
       </c>
       <c r="N567" s="1">
@@ -47911,7 +47911,7 @@
         <v>19690</v>
       </c>
       <c r="M568" s="13">
-        <f>VALUE(L568)</f>
+        <f t="shared" si="8"/>
         <v>19690</v>
       </c>
       <c r="N568" s="1">
@@ -47987,7 +47987,7 @@
         <v>32345</v>
       </c>
       <c r="M569" s="13">
-        <f>VALUE(L569)</f>
+        <f t="shared" si="8"/>
         <v>32345</v>
       </c>
       <c r="N569" s="1">
@@ -48063,7 +48063,7 @@
         <v>3758</v>
       </c>
       <c r="M570" s="13">
-        <f>VALUE(L570)</f>
+        <f t="shared" si="8"/>
         <v>3758</v>
       </c>
       <c r="N570" s="1">
@@ -48139,7 +48139,7 @@
         <v>6965</v>
       </c>
       <c r="M571" s="13">
-        <f>VALUE(L571)</f>
+        <f t="shared" si="8"/>
         <v>6965</v>
       </c>
       <c r="N571" s="1">
@@ -48215,7 +48215,7 @@
         <v>8011</v>
       </c>
       <c r="M572" s="13">
-        <f>VALUE(L572)</f>
+        <f t="shared" si="8"/>
         <v>8011</v>
       </c>
       <c r="N572" s="1">
@@ -48291,7 +48291,7 @@
         <v>39393</v>
       </c>
       <c r="M573" s="13">
-        <f>VALUE(L573)</f>
+        <f t="shared" si="8"/>
         <v>39393</v>
       </c>
       <c r="N573" s="1">
@@ -48367,7 +48367,7 @@
         <v>46157</v>
       </c>
       <c r="M574" s="13">
-        <f>VALUE(L574)</f>
+        <f t="shared" si="8"/>
         <v>46157</v>
       </c>
       <c r="N574" s="1">
@@ -48443,7 +48443,7 @@
         <v>37075</v>
       </c>
       <c r="M575" s="13">
-        <f>VALUE(L575)</f>
+        <f t="shared" si="8"/>
         <v>37075</v>
       </c>
       <c r="N575" s="1">
@@ -48519,7 +48519,7 @@
         <v>38416</v>
       </c>
       <c r="M576" s="13">
-        <f>VALUE(L576)</f>
+        <f t="shared" si="8"/>
         <v>38416</v>
       </c>
       <c r="N576" s="1">
@@ -48595,7 +48595,7 @@
         <v>20163</v>
       </c>
       <c r="M577" s="13">
-        <f>VALUE(L577)</f>
+        <f t="shared" si="8"/>
         <v>20163</v>
       </c>
       <c r="N577" s="1">
@@ -48671,7 +48671,7 @@
         <v>65035</v>
       </c>
       <c r="M578" s="13">
-        <f>VALUE(L578)</f>
+        <f t="shared" ref="M578:M641" si="9">VALUE(L578)</f>
         <v>65035</v>
       </c>
       <c r="N578" s="1">
@@ -48747,7 +48747,7 @@
         <v>19989</v>
       </c>
       <c r="M579" s="13">
-        <f>VALUE(L579)</f>
+        <f t="shared" si="9"/>
         <v>19989</v>
       </c>
       <c r="N579" s="1">
@@ -48823,7 +48823,7 @@
         <v>56799</v>
       </c>
       <c r="M580" s="13">
-        <f>VALUE(L580)</f>
+        <f t="shared" si="9"/>
         <v>56799</v>
       </c>
       <c r="N580" s="1">
@@ -48899,7 +48899,7 @@
         <v>32224</v>
       </c>
       <c r="M581" s="13">
-        <f>VALUE(L581)</f>
+        <f t="shared" si="9"/>
         <v>32224</v>
       </c>
       <c r="N581" s="1">
@@ -48975,7 +48975,7 @@
         <v>42835</v>
       </c>
       <c r="M582" s="13">
-        <f>VALUE(L582)</f>
+        <f t="shared" si="9"/>
         <v>42835</v>
       </c>
       <c r="N582" s="1">
@@ -49051,7 +49051,7 @@
         <v>168580</v>
       </c>
       <c r="M583" s="13">
-        <f>VALUE(L583)</f>
+        <f t="shared" si="9"/>
         <v>168580</v>
       </c>
       <c r="N583" s="1">
@@ -49127,7 +49127,7 @@
         <v>7904</v>
       </c>
       <c r="M584" s="13">
-        <f>VALUE(L584)</f>
+        <f t="shared" si="9"/>
         <v>7904</v>
       </c>
       <c r="N584" s="1">
@@ -49203,7 +49203,7 @@
         <v>33405</v>
       </c>
       <c r="M585" s="13">
-        <f>VALUE(L585)</f>
+        <f t="shared" si="9"/>
         <v>33405</v>
       </c>
       <c r="N585" s="1">
@@ -49279,7 +49279,7 @@
         <v>57978</v>
       </c>
       <c r="M586" s="13">
-        <f>VALUE(L586)</f>
+        <f t="shared" si="9"/>
         <v>57978</v>
       </c>
       <c r="N586" s="1">
@@ -49355,7 +49355,7 @@
         <v>35616</v>
       </c>
       <c r="M587" s="13">
-        <f>VALUE(L587)</f>
+        <f t="shared" si="9"/>
         <v>35616</v>
       </c>
       <c r="N587" s="1">
@@ -49431,7 +49431,7 @@
         <v>351</v>
       </c>
       <c r="M588" s="13">
-        <f>VALUE(L588)</f>
+        <f t="shared" si="9"/>
         <v>351</v>
       </c>
       <c r="N588" s="1">
@@ -49507,7 +49507,7 @@
         <v>19472</v>
       </c>
       <c r="M589" s="13">
-        <f>VALUE(L589)</f>
+        <f t="shared" si="9"/>
         <v>19472</v>
       </c>
       <c r="N589" s="1">
@@ -49583,7 +49583,7 @@
         <v>77606</v>
       </c>
       <c r="M590" s="13">
-        <f>VALUE(L590)</f>
+        <f t="shared" si="9"/>
         <v>77606</v>
       </c>
       <c r="N590" s="1">
@@ -49659,7 +49659,7 @@
         <v>1454</v>
       </c>
       <c r="M591" s="13">
-        <f>VALUE(L591)</f>
+        <f t="shared" si="9"/>
         <v>1454</v>
       </c>
       <c r="N591" s="1">
@@ -49735,7 +49735,7 @@
         <v>39325</v>
       </c>
       <c r="M592" s="13">
-        <f>VALUE(L592)</f>
+        <f t="shared" si="9"/>
         <v>39325</v>
       </c>
       <c r="N592" s="1">
@@ -49811,7 +49811,7 @@
         <v>392</v>
       </c>
       <c r="M593" s="13">
-        <f>VALUE(L593)</f>
+        <f t="shared" si="9"/>
         <v>392</v>
       </c>
       <c r="N593" s="1">
@@ -49887,7 +49887,7 @@
         <v>10932</v>
       </c>
       <c r="M594" s="13">
-        <f>VALUE(L594)</f>
+        <f t="shared" si="9"/>
         <v>10932</v>
       </c>
       <c r="N594" s="1">
@@ -49963,7 +49963,7 @@
         <v>440</v>
       </c>
       <c r="M595" s="13">
-        <f>VALUE(L595)</f>
+        <f t="shared" si="9"/>
         <v>440</v>
       </c>
       <c r="N595" s="1">
@@ -50039,7 +50039,7 @@
         <v>81</v>
       </c>
       <c r="M596" s="13">
-        <f>VALUE(L596)</f>
+        <f t="shared" si="9"/>
         <v>81</v>
       </c>
       <c r="N596" s="1">
@@ -50115,7 +50115,7 @@
         <v>27170</v>
       </c>
       <c r="M597" s="13">
-        <f>VALUE(L597)</f>
+        <f t="shared" si="9"/>
         <v>27170</v>
       </c>
       <c r="N597" s="1">
@@ -50191,7 +50191,7 @@
         <v>17852</v>
       </c>
       <c r="M598" s="13">
-        <f>VALUE(L598)</f>
+        <f t="shared" si="9"/>
         <v>17852</v>
       </c>
       <c r="N598" s="1">
@@ -50267,7 +50267,7 @@
         <v>10257</v>
       </c>
       <c r="M599" s="13">
-        <f>VALUE(L599)</f>
+        <f t="shared" si="9"/>
         <v>10257</v>
       </c>
       <c r="N599" s="1">
@@ -50343,7 +50343,7 @@
         <v>20213</v>
       </c>
       <c r="M600" s="13">
-        <f>VALUE(L600)</f>
+        <f t="shared" si="9"/>
         <v>20213</v>
       </c>
       <c r="N600" s="1">
@@ -50419,7 +50419,7 @@
         <v>4853</v>
       </c>
       <c r="M601" s="13">
-        <f>VALUE(L601)</f>
+        <f t="shared" si="9"/>
         <v>4853</v>
       </c>
       <c r="N601" s="1">
@@ -50495,7 +50495,7 @@
         <v>21708</v>
       </c>
       <c r="M602" s="13">
-        <f>VALUE(L602)</f>
+        <f t="shared" si="9"/>
         <v>21708</v>
       </c>
       <c r="N602" s="1">
@@ -50571,7 +50571,7 @@
         <v>26500</v>
       </c>
       <c r="M603" s="13">
-        <f>VALUE(L603)</f>
+        <f t="shared" si="9"/>
         <v>26500</v>
       </c>
       <c r="N603" s="1">
@@ -50647,7 +50647,7 @@
         <v>15069</v>
       </c>
       <c r="M604" s="13">
-        <f>VALUE(L604)</f>
+        <f t="shared" si="9"/>
         <v>15069</v>
       </c>
       <c r="N604" s="1">
@@ -50723,7 +50723,7 @@
         <v>2400</v>
       </c>
       <c r="M605" s="13">
-        <f>VALUE(L605)</f>
+        <f t="shared" si="9"/>
         <v>2400</v>
       </c>
       <c r="N605" s="1">
@@ -50799,7 +50799,7 @@
         <v>9140</v>
       </c>
       <c r="M606" s="13">
-        <f>VALUE(L606)</f>
+        <f t="shared" si="9"/>
         <v>9140</v>
       </c>
       <c r="N606" s="1">
@@ -50875,7 +50875,7 @@
         <v>191</v>
       </c>
       <c r="M607" s="13">
-        <f>VALUE(L607)</f>
+        <f t="shared" si="9"/>
         <v>191</v>
       </c>
       <c r="N607" s="1">
@@ -50951,7 +50951,7 @@
         <v>16536</v>
       </c>
       <c r="M608" s="13">
-        <f>VALUE(L608)</f>
+        <f t="shared" si="9"/>
         <v>16536</v>
       </c>
       <c r="N608" s="1">
@@ -51027,7 +51027,7 @@
         <v>1127</v>
       </c>
       <c r="M609" s="13">
-        <f>VALUE(L609)</f>
+        <f t="shared" si="9"/>
         <v>1127</v>
       </c>
       <c r="N609" s="1">
@@ -51103,7 +51103,7 @@
         <v>16276</v>
       </c>
       <c r="M610" s="13">
-        <f>VALUE(L610)</f>
+        <f t="shared" si="9"/>
         <v>16276</v>
       </c>
       <c r="N610" s="1">
@@ -51179,7 +51179,7 @@
         <v>11370</v>
       </c>
       <c r="M611" s="13">
-        <f>VALUE(L611)</f>
+        <f t="shared" si="9"/>
         <v>11370</v>
       </c>
       <c r="N611" s="1">
@@ -51255,7 +51255,7 @@
         <v>10414</v>
       </c>
       <c r="M612" s="13">
-        <f>VALUE(L612)</f>
+        <f t="shared" si="9"/>
         <v>10414</v>
       </c>
       <c r="N612" s="1">
@@ -51331,7 +51331,7 @@
         <v>13652</v>
       </c>
       <c r="M613" s="13">
-        <f>VALUE(L613)</f>
+        <f t="shared" si="9"/>
         <v>13652</v>
       </c>
       <c r="N613" s="1">
@@ -51407,7 +51407,7 @@
         <v>55200</v>
       </c>
       <c r="M614" s="13">
-        <f>VALUE(L614)</f>
+        <f t="shared" si="9"/>
         <v>55200</v>
       </c>
       <c r="N614" s="1">
@@ -51483,7 +51483,7 @@
         <v>10680</v>
       </c>
       <c r="M615" s="13">
-        <f>VALUE(L615)</f>
+        <f t="shared" si="9"/>
         <v>10680</v>
       </c>
       <c r="N615" s="1">
@@ -51559,7 +51559,7 @@
         <v>11684</v>
       </c>
       <c r="M616" s="13">
-        <f>VALUE(L616)</f>
+        <f t="shared" si="9"/>
         <v>11684</v>
       </c>
       <c r="N616" s="1">
@@ -51635,7 +51635,7 @@
         <v>22504</v>
       </c>
       <c r="M617" s="13">
-        <f>VALUE(L617)</f>
+        <f t="shared" si="9"/>
         <v>22504</v>
       </c>
       <c r="N617" s="1">
@@ -51711,7 +51711,7 @@
         <v>9556</v>
       </c>
       <c r="M618" s="13">
-        <f>VALUE(L618)</f>
+        <f t="shared" si="9"/>
         <v>9556</v>
       </c>
       <c r="N618" s="1">
@@ -51787,7 +51787,7 @@
         <v>18576</v>
       </c>
       <c r="M619" s="13">
-        <f>VALUE(L619)</f>
+        <f t="shared" si="9"/>
         <v>18576</v>
       </c>
       <c r="N619" s="1">
@@ -51863,7 +51863,7 @@
         <v>23955</v>
       </c>
       <c r="M620" s="13">
-        <f>VALUE(L620)</f>
+        <f t="shared" si="9"/>
         <v>23955</v>
       </c>
       <c r="N620" s="1">
@@ -51939,7 +51939,7 @@
         <v>11680</v>
       </c>
       <c r="M621" s="13">
-        <f>VALUE(L621)</f>
+        <f t="shared" si="9"/>
         <v>11680</v>
       </c>
       <c r="N621" s="1">
@@ -52015,7 +52015,7 @@
         <v>21069</v>
       </c>
       <c r="M622" s="13">
-        <f>VALUE(L622)</f>
+        <f t="shared" si="9"/>
         <v>21069</v>
       </c>
       <c r="N622" s="1">
@@ -52091,7 +52091,7 @@
         <v>79563</v>
       </c>
       <c r="M623" s="13">
-        <f>VALUE(L623)</f>
+        <f t="shared" si="9"/>
         <v>79563</v>
       </c>
       <c r="N623" s="1">
@@ -52167,7 +52167,7 @@
         <v>22291</v>
       </c>
       <c r="M624" s="13">
-        <f>VALUE(L624)</f>
+        <f t="shared" si="9"/>
         <v>22291</v>
       </c>
       <c r="N624" s="1">
@@ -52243,7 +52243,7 @@
         <v>18288</v>
       </c>
       <c r="M625" s="13">
-        <f>VALUE(L625)</f>
+        <f t="shared" si="9"/>
         <v>18288</v>
       </c>
       <c r="N625" s="1">
@@ -52319,7 +52319,7 @@
         <v>119918</v>
       </c>
       <c r="M626" s="13">
-        <f>VALUE(L626)</f>
+        <f t="shared" si="9"/>
         <v>119918</v>
       </c>
       <c r="N626" s="1">
@@ -52395,7 +52395,7 @@
         <v>13098</v>
       </c>
       <c r="M627" s="13">
-        <f>VALUE(L627)</f>
+        <f t="shared" si="9"/>
         <v>13098</v>
       </c>
       <c r="N627" s="1">
@@ -52471,7 +52471,7 @@
         <v>27620</v>
       </c>
       <c r="M628" s="13">
-        <f>VALUE(L628)</f>
+        <f t="shared" si="9"/>
         <v>27620</v>
       </c>
       <c r="N628" s="1">
@@ -52547,7 +52547,7 @@
         <v>34932</v>
       </c>
       <c r="M629" s="13">
-        <f>VALUE(L629)</f>
+        <f t="shared" si="9"/>
         <v>34932</v>
       </c>
       <c r="N629" s="1">
@@ -52623,7 +52623,7 @@
         <v>21599</v>
       </c>
       <c r="M630" s="13">
-        <f>VALUE(L630)</f>
+        <f t="shared" si="9"/>
         <v>21599</v>
       </c>
       <c r="N630" s="1">
@@ -52699,7 +52699,7 @@
         <v>54083</v>
       </c>
       <c r="M631" s="13">
-        <f>VALUE(L631)</f>
+        <f t="shared" si="9"/>
         <v>54083</v>
       </c>
       <c r="N631" s="1">
@@ -52775,7 +52775,7 @@
         <v>15194</v>
       </c>
       <c r="M632" s="13">
-        <f>VALUE(L632)</f>
+        <f t="shared" si="9"/>
         <v>15194</v>
       </c>
       <c r="N632" s="1">
@@ -52851,7 +52851,7 @@
         <v>51591</v>
       </c>
       <c r="M633" s="13">
-        <f>VALUE(L633)</f>
+        <f t="shared" si="9"/>
         <v>51591</v>
       </c>
       <c r="N633" s="1">
@@ -52927,7 +52927,7 @@
         <v>14720</v>
       </c>
       <c r="M634" s="13">
-        <f>VALUE(L634)</f>
+        <f t="shared" si="9"/>
         <v>14720</v>
       </c>
       <c r="N634" s="1">
@@ -53003,7 +53003,7 @@
         <v>20775</v>
       </c>
       <c r="M635" s="13">
-        <f>VALUE(L635)</f>
+        <f t="shared" si="9"/>
         <v>20775</v>
       </c>
       <c r="N635" s="1">
@@ -53079,7 +53079,7 @@
         <v>3000</v>
       </c>
       <c r="M636" s="13">
-        <f>VALUE(L636)</f>
+        <f t="shared" si="9"/>
         <v>3000</v>
       </c>
       <c r="N636" s="1">
@@ -53155,7 +53155,7 @@
         <v>311</v>
       </c>
       <c r="M637" s="13">
-        <f>VALUE(L637)</f>
+        <f t="shared" si="9"/>
         <v>311</v>
       </c>
       <c r="N637" s="1">
@@ -53231,7 +53231,7 @@
         <v>16375</v>
       </c>
       <c r="M638" s="13">
-        <f>VALUE(L638)</f>
+        <f t="shared" si="9"/>
         <v>16375</v>
       </c>
       <c r="N638" s="1">
@@ -53307,7 +53307,7 @@
         <v>12484</v>
       </c>
       <c r="M639" s="13">
-        <f>VALUE(L639)</f>
+        <f t="shared" si="9"/>
         <v>12484</v>
       </c>
       <c r="N639" s="1">
@@ -53383,7 +53383,7 @@
         <v>9784</v>
       </c>
       <c r="M640" s="13">
-        <f>VALUE(L640)</f>
+        <f t="shared" si="9"/>
         <v>9784</v>
       </c>
       <c r="N640" s="1">
@@ -53459,7 +53459,7 @@
         <v>29059</v>
       </c>
       <c r="M641" s="13">
-        <f>VALUE(L641)</f>
+        <f t="shared" si="9"/>
         <v>29059</v>
       </c>
       <c r="N641" s="1">
@@ -53535,7 +53535,7 @@
         <v>30457</v>
       </c>
       <c r="M642" s="13">
-        <f>VALUE(L642)</f>
+        <f t="shared" ref="M642:M705" si="10">VALUE(L642)</f>
         <v>30457</v>
       </c>
       <c r="N642" s="1">
@@ -53611,7 +53611,7 @@
         <v>36980</v>
       </c>
       <c r="M643" s="13">
-        <f>VALUE(L643)</f>
+        <f t="shared" si="10"/>
         <v>36980</v>
       </c>
       <c r="N643" s="1">
@@ -53687,7 +53687,7 @@
         <v>36542</v>
       </c>
       <c r="M644" s="13">
-        <f>VALUE(L644)</f>
+        <f t="shared" si="10"/>
         <v>36542</v>
       </c>
       <c r="N644" s="1">
@@ -53763,7 +53763,7 @@
         <v>51960</v>
       </c>
       <c r="M645" s="13">
-        <f>VALUE(L645)</f>
+        <f t="shared" si="10"/>
         <v>51960</v>
       </c>
       <c r="N645" s="1">
@@ -53839,7 +53839,7 @@
         <v>3642</v>
       </c>
       <c r="M646" s="13">
-        <f>VALUE(L646)</f>
+        <f t="shared" si="10"/>
         <v>3642</v>
       </c>
       <c r="N646" s="1">
@@ -53915,7 +53915,7 @@
         <v>106</v>
       </c>
       <c r="M647" s="13">
-        <f>VALUE(L647)</f>
+        <f t="shared" si="10"/>
         <v>106</v>
       </c>
       <c r="N647" s="1">
@@ -53991,7 +53991,7 @@
         <v>3852</v>
       </c>
       <c r="M648" s="13">
-        <f>VALUE(L648)</f>
+        <f t="shared" si="10"/>
         <v>3852</v>
       </c>
       <c r="N648" s="1">
@@ -54067,7 +54067,7 @@
         <v>457</v>
       </c>
       <c r="M649" s="13">
-        <f>VALUE(L649)</f>
+        <f t="shared" si="10"/>
         <v>457</v>
       </c>
       <c r="N649" s="1">
@@ -54143,7 +54143,7 @@
         <v>6575</v>
       </c>
       <c r="M650" s="13">
-        <f>VALUE(L650)</f>
+        <f t="shared" si="10"/>
         <v>6575</v>
       </c>
       <c r="N650" s="1">
@@ -54219,7 +54219,7 @@
         <v>2356</v>
       </c>
       <c r="M651" s="13">
-        <f>VALUE(L651)</f>
+        <f t="shared" si="10"/>
         <v>2356</v>
       </c>
       <c r="N651" s="1">
@@ -54295,7 +54295,7 @@
         <v>170</v>
       </c>
       <c r="M652" s="13">
-        <f>VALUE(L652)</f>
+        <f t="shared" si="10"/>
         <v>170</v>
       </c>
       <c r="N652" s="1">
@@ -54371,7 +54371,7 @@
         <v>506</v>
       </c>
       <c r="M653" s="13">
-        <f>VALUE(L653)</f>
+        <f t="shared" si="10"/>
         <v>506</v>
       </c>
       <c r="N653" s="1">
@@ -54447,7 +54447,7 @@
         <v>556</v>
       </c>
       <c r="M654" s="13">
-        <f>VALUE(L654)</f>
+        <f t="shared" si="10"/>
         <v>556</v>
       </c>
       <c r="N654" s="1">
@@ -54523,7 +54523,7 @@
         <v>44</v>
       </c>
       <c r="M655" s="13">
-        <f>VALUE(L655)</f>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="N655" s="1">
@@ -54599,7 +54599,7 @@
         <v>525</v>
       </c>
       <c r="M656" s="13">
-        <f>VALUE(L656)</f>
+        <f t="shared" si="10"/>
         <v>525</v>
       </c>
       <c r="N656" s="1">
@@ -54675,7 +54675,7 @@
         <v>2559</v>
       </c>
       <c r="M657" s="13">
-        <f>VALUE(L657)</f>
+        <f t="shared" si="10"/>
         <v>2559</v>
       </c>
       <c r="N657" s="1">
@@ -54751,7 +54751,7 @@
         <v>4</v>
       </c>
       <c r="M658" s="13">
-        <f>VALUE(L658)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="N658" s="1">
@@ -54827,7 +54827,7 @@
         <v>127</v>
       </c>
       <c r="M659" s="13">
-        <f>VALUE(L659)</f>
+        <f t="shared" si="10"/>
         <v>127</v>
       </c>
       <c r="N659" s="1">
@@ -54903,7 +54903,7 @@
         <v>1378</v>
       </c>
       <c r="M660" s="13">
-        <f>VALUE(L660)</f>
+        <f t="shared" si="10"/>
         <v>1378</v>
       </c>
       <c r="N660" s="1">
@@ -54979,7 +54979,7 @@
         <v>1307</v>
       </c>
       <c r="M661" s="13">
-        <f>VALUE(L661)</f>
+        <f t="shared" si="10"/>
         <v>1307</v>
       </c>
       <c r="N661" s="1">
@@ -55055,7 +55055,7 @@
         <v>872</v>
       </c>
       <c r="M662" s="13">
-        <f>VALUE(L662)</f>
+        <f t="shared" si="10"/>
         <v>872</v>
       </c>
       <c r="N662" s="1">
@@ -55131,7 +55131,7 @@
         <v>64493</v>
       </c>
       <c r="M663" s="13">
-        <f>VALUE(L663)</f>
+        <f t="shared" si="10"/>
         <v>64493</v>
       </c>
       <c r="N663" s="1">
@@ -55207,7 +55207,7 @@
         <v>22201</v>
       </c>
       <c r="M664" s="13">
-        <f>VALUE(L664)</f>
+        <f t="shared" si="10"/>
         <v>22201</v>
       </c>
       <c r="N664" s="1">
@@ -55283,7 +55283,7 @@
         <v>122572</v>
       </c>
       <c r="M665" s="13">
-        <f>VALUE(L665)</f>
+        <f t="shared" si="10"/>
         <v>122572</v>
       </c>
       <c r="N665" s="1">
@@ -55359,7 +55359,7 @@
         <v>39609</v>
       </c>
       <c r="M666" s="13">
-        <f>VALUE(L666)</f>
+        <f t="shared" si="10"/>
         <v>39609</v>
       </c>
       <c r="N666" s="1">
@@ -55435,7 +55435,7 @@
         <v>16009</v>
       </c>
       <c r="M667" s="13">
-        <f>VALUE(L667)</f>
+        <f t="shared" si="10"/>
         <v>16009</v>
       </c>
       <c r="N667" s="1">
@@ -55511,7 +55511,7 @@
         <v>8260</v>
       </c>
       <c r="M668" s="13">
-        <f>VALUE(L668)</f>
+        <f t="shared" si="10"/>
         <v>8260</v>
       </c>
       <c r="N668" s="1">
@@ -55587,7 +55587,7 @@
         <v>136</v>
       </c>
       <c r="M669" s="13">
-        <f>VALUE(L669)</f>
+        <f t="shared" si="10"/>
         <v>136</v>
       </c>
       <c r="N669" s="1">
@@ -55663,7 +55663,7 @@
         <v>1900</v>
       </c>
       <c r="M670" s="13">
-        <f>VALUE(L670)</f>
+        <f t="shared" si="10"/>
         <v>1900</v>
       </c>
       <c r="N670" s="1">
@@ -55739,7 +55739,7 @@
         <v>18904</v>
       </c>
       <c r="M671" s="13">
-        <f>VALUE(L671)</f>
+        <f t="shared" si="10"/>
         <v>18904</v>
       </c>
       <c r="N671" s="1">
@@ -55815,7 +55815,7 @@
         <v>9766</v>
       </c>
       <c r="M672" s="13">
-        <f>VALUE(L672)</f>
+        <f t="shared" si="10"/>
         <v>9766</v>
       </c>
       <c r="N672" s="1">
@@ -55891,7 +55891,7 @@
         <v>49213</v>
       </c>
       <c r="M673" s="13">
-        <f>VALUE(L673)</f>
+        <f t="shared" si="10"/>
         <v>49213</v>
       </c>
       <c r="N673" s="1">
@@ -55967,7 +55967,7 @@
         <v>9224</v>
       </c>
       <c r="M674" s="13">
-        <f>VALUE(L674)</f>
+        <f t="shared" si="10"/>
         <v>9224</v>
       </c>
       <c r="N674" s="1">
@@ -56043,7 +56043,7 @@
         <v>15153</v>
       </c>
       <c r="M675" s="13">
-        <f>VALUE(L675)</f>
+        <f t="shared" si="10"/>
         <v>15153</v>
       </c>
       <c r="N675" s="1">
@@ -56119,7 +56119,7 @@
         <v>11336</v>
       </c>
       <c r="M676" s="13">
-        <f>VALUE(L676)</f>
+        <f t="shared" si="10"/>
         <v>11336</v>
       </c>
       <c r="N676" s="1">
@@ -56195,7 +56195,7 @@
         <v>404</v>
       </c>
       <c r="M677" s="13">
-        <f>VALUE(L677)</f>
+        <f t="shared" si="10"/>
         <v>404</v>
       </c>
       <c r="N677" s="1">
@@ -56271,7 +56271,7 @@
         <v>124</v>
       </c>
       <c r="M678" s="13">
-        <f>VALUE(L678)</f>
+        <f t="shared" si="10"/>
         <v>124</v>
       </c>
       <c r="N678" s="1">
@@ -56347,7 +56347,7 @@
         <v>664</v>
       </c>
       <c r="M679" s="13">
-        <f>VALUE(L679)</f>
+        <f t="shared" si="10"/>
         <v>664</v>
       </c>
       <c r="N679" s="1">
@@ -56423,7 +56423,7 @@
         <v>36</v>
       </c>
       <c r="M680" s="13">
-        <f>VALUE(L680)</f>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="N680" s="1">
@@ -56499,7 +56499,7 @@
         <v>123</v>
       </c>
       <c r="M681" s="13">
-        <f>VALUE(L681)</f>
+        <f t="shared" si="10"/>
         <v>123</v>
       </c>
       <c r="N681" s="1">
@@ -56575,7 +56575,7 @@
         <v>160</v>
       </c>
       <c r="M682" s="13">
-        <f>VALUE(L682)</f>
+        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="N682" s="1">
@@ -56651,7 +56651,7 @@
         <v>73905</v>
       </c>
       <c r="M683" s="13">
-        <f>VALUE(L683)</f>
+        <f t="shared" si="10"/>
         <v>73905</v>
       </c>
       <c r="N683" s="1">
@@ -56727,7 +56727,7 @@
         <v>9345</v>
       </c>
       <c r="M684" s="13">
-        <f>VALUE(L684)</f>
+        <f t="shared" si="10"/>
         <v>9345</v>
       </c>
       <c r="N684" s="1">
@@ -56803,7 +56803,7 @@
         <v>33265</v>
       </c>
       <c r="M685" s="13">
-        <f>VALUE(L685)</f>
+        <f t="shared" si="10"/>
         <v>33265</v>
       </c>
       <c r="N685" s="1">
@@ -56879,7 +56879,7 @@
         <v>30</v>
       </c>
       <c r="M686" s="13">
-        <f>VALUE(L686)</f>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="N686" s="1">
@@ -56955,7 +56955,7 @@
         <v>14045</v>
       </c>
       <c r="M687" s="13">
-        <f>VALUE(L687)</f>
+        <f t="shared" si="10"/>
         <v>14045</v>
       </c>
       <c r="N687" s="1">
@@ -57031,7 +57031,7 @@
         <v>15</v>
       </c>
       <c r="M688" s="13">
-        <f>VALUE(L688)</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="N688" s="1">
